--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -1,33 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1735794A-2DB6-4A5B-8A45-238386E4B02C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="32">
   <si>
     <t>"&gt;</t>
   </si>
   <si>
     <t>&lt;/a&gt;&lt;/br&gt;</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKeyWithoutPlaintext.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/lambda-traffic-shifting-using-aliases.html</t>
   </si>
   <si>
     <r>
@@ -80,86 +87,98 @@
     </r>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/codedeploy/latest/userguide/instances.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.as.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/IAM/latest/UserGuide/cloudtrail-integration.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/what-is-cfnstacksets.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/troubleshooting.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/automating-deployment.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environments-updating.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/codestar/features/</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Query.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Programming.Errors.html</t>
-  </si>
-  <si>
-    <t>https://console.aws.amazon.com/iam/</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/IAM/latest/UserGuide/access_policies_testing-policies.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKey.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/firehose/latest/dev/encryption.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/best-practices.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/general/latest/gr/aws-sec-cred-types.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/specifying-conditions.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/get-started-create-function.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/iam-roles-for-amazon-ec2.html</t>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/models-mappings.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_ConnectToInstance.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/identity-pools.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/CloudWatch-Agent-common-scenarios.html#CloudWatch-Agent-aggregating-metrics</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/what-is-datapipeline.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/Route53/latest/DeveloperGuide/dns-failover.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/lambda-x-ray.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/monitoring-functions-access-metrics.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/RequestAndResponseBehaviorS3Origin.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/conditions-section-structure.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-viewers-to-cloudfront.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-cloudfront-to-custom-origin.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticloadbalancing/latest/application/load-balancer-troubleshooting.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/DAX.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +223,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,18 +249,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -241,6 +280,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -289,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,9 +364,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,6 +416,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,72 +608,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F27"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="240.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="86.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="96.88671875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>B1</f>
-        <v>https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKeyWithoutPlaintext.html</v>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKeyWithoutPlaintext.html"&gt;https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKeyWithoutPlaintext.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D30" si="0">B2</f>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/lambda-traffic-shifting-using-aliases.html</v>
+        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/models-mappings.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F30" si="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/lambda-traffic-shifting-using-aliases.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/lambda-traffic-shifting-using-aliases.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/models-mappings.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/models-mappings.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -605,21 +682,21 @@
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/codedeploy/latest/userguide/instances.html</v>
+        <v>https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codedeploy/latest/userguide/instances.html"&gt;https://docs.aws.amazon.com/codedeploy/latest/userguide/instances.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -627,21 +704,21 @@
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.as.html</v>
+        <v>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.as.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.as.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -649,21 +726,21 @@
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy</v>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy"&gt;https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -671,21 +748,21 @@
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/IAM/latest/UserGuide/cloudtrail-integration.html</v>
+        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/cloudtrail-integration.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/cloudtrail-integration.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -693,21 +770,21 @@
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/what-is-cfnstacksets.html</v>
+        <v>https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_ConnectToInstance.html</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/what-is-cfnstacksets.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/what-is-cfnstacksets.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_ConnectToInstance.html"&gt;https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_ConnectToInstance.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -715,21 +792,21 @@
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonS3/latest/dev/troubleshooting.html</v>
+        <v>https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/troubleshooting.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/troubleshooting.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html"&gt;https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -737,21 +814,21 @@
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html</v>
+        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/identity-pools.html</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/identity-pools.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/identity-pools.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -759,21 +836,21 @@
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/automating-deployment.html</v>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/automating-deployment.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/automating-deployment.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -781,21 +858,21 @@
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environments-updating.html</v>
+        <v>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/CloudWatch-Agent-common-scenarios.html#CloudWatch-Agent-aggregating-metrics</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environments-updating.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environments-updating.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/CloudWatch-Agent-common-scenarios.html#CloudWatch-Agent-aggregating-metrics"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/CloudWatch-Agent-common-scenarios.html#CloudWatch-Agent-aggregating-metrics&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -803,21 +880,21 @@
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html</v>
+        <v>https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/what-is-datapipeline.html</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/what-is-datapipeline.html"&gt;https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/what-is-datapipeline.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -825,21 +902,21 @@
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/codestar/features/</v>
+        <v>https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/codestar/features/"&gt;https://aws.amazon.com/codestar/features/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -847,21 +924,21 @@
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Query.html</v>
+        <v>https://docs.aws.amazon.com/Route53/latest/DeveloperGuide/dns-failover.html</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Query.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Query.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/Route53/latest/DeveloperGuide/dns-failover.html"&gt;https://docs.aws.amazon.com/Route53/latest/DeveloperGuide/dns-failover.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -869,21 +946,21 @@
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Programming.Errors.html</v>
+        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Programming.Errors.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Programming.Errors.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -891,21 +968,21 @@
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://console.aws.amazon.com/iam/</v>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://console.aws.amazon.com/iam/"&gt;https://console.aws.amazon.com/iam/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -913,21 +990,21 @@
       </c>
       <c r="D17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html</v>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/lambda-x-ray.html</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/lambda-x-ray.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/lambda-x-ray.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -935,21 +1012,21 @@
       </c>
       <c r="D18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html</v>
+        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -957,21 +1034,21 @@
       </c>
       <c r="D19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/IAM/latest/UserGuide/access_policies_testing-policies.html</v>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/monitoring-functions-access-metrics.html</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/access_policies_testing-policies.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/access_policies_testing-policies.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/monitoring-functions-access-metrics.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/monitoring-functions-access-metrics.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -979,21 +1056,21 @@
       </c>
       <c r="D20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKey.html</v>
+        <v>https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/RequestAndResponseBehaviorS3Origin.html</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKey.html"&gt;https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKey.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/RequestAndResponseBehaviorS3Origin.html"&gt;https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/RequestAndResponseBehaviorS3Origin.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1001,21 +1078,21 @@
       </c>
       <c r="D21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/firehose/latest/dev/encryption.html</v>
+        <v>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/conditions-section-structure.html</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/firehose/latest/dev/encryption.html"&gt;https://docs.aws.amazon.com/firehose/latest/dev/encryption.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/conditions-section-structure.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/conditions-section-structure.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1023,21 +1100,21 @@
       </c>
       <c r="D22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html</v>
+        <v>https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1045,21 +1122,21 @@
       </c>
       <c r="D23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/best-practices.html</v>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/best-practices.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/best-practices.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1067,21 +1144,21 @@
       </c>
       <c r="D24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/general/latest/gr/aws-sec-cred-types.html</v>
+        <v>https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-viewers-to-cloudfront.html</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/aws-sec-cred-types.html"&gt;https://docs.aws.amazon.com/general/latest/gr/aws-sec-cred-types.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-viewers-to-cloudfront.html"&gt;https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-viewers-to-cloudfront.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1089,21 +1166,21 @@
       </c>
       <c r="D25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/specifying-conditions.html</v>
+        <v>https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-cloudfront-to-custom-origin.html</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/specifying-conditions.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/specifying-conditions.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-cloudfront-to-custom-origin.html"&gt;https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-cloudfront-to-custom-origin.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1111,21 +1188,21 @@
       </c>
       <c r="D26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/get-started-create-function.html</v>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/get-started-create-function.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/get-started-create-function.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1133,59 +1210,63 @@
       </c>
       <c r="D27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/iam-roles-for-amazon-ec2.html</v>
+        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/iam-roles-for-amazon-ec2.html"&gt;https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/iam-roles-for-amazon-ec2.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/elasticloadbalancing/latest/application/load-balancer-troubleshooting.html</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticloadbalancing/latest/application/load-balancer-troubleshooting.html"&gt;https://docs.aws.amazon.com/elasticloadbalancing/latest/application/load-balancer-troubleshooting.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="C29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/DAX.html</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/DAX.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/DAX.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3" t="s">
@@ -1204,30 +1285,60 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{AA0C68CC-FE9A-469F-9AF1-464A04BE3166}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{63E97D96-CDAB-47ED-A793-F2E463B77962}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{475666CA-C381-499C-A782-50A850B0A9ED}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{0C54473A-885D-486C-9497-0F95BB2A81C9}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{8D9A43CF-03F6-4020-A66F-6F2DF987D748}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{16D7F524-E8EA-48AF-8FE2-965EE80B196D}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{9EE858CA-8A3D-44C5-A7D6-95C74790E2C5}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{5F6F02C6-B12F-4839-83E8-AF15D1D98A25}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{2AFB5EB4-4F29-4F3B-BF9D-56B1E85BB6BB}"/>
+    <hyperlink ref="B11" r:id="rId10" location="CloudWatch-Agent-aggregating-metrics" xr:uid="{74D78696-EDC5-43BD-B559-AC95C6765162}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{F9A3AE63-F126-4C06-9A94-9EE28F3020BC}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{E0D1ED21-F1B5-49E8-A23A-275AE737B94A}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{93ADE088-500F-4934-A208-1348EEFE2E2E}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{E06A31A7-9167-4422-8004-2ADA952B4EFD}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{8C302F66-70B6-445F-8EAC-9774F24BDB74}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{EA34E5BE-8253-4321-8963-4596C38E9893}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{7B4FBC5F-13DF-474F-B2B6-40F067E12E7F}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{2D0C3428-51E7-4A98-A619-7F180AF6BF2F}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{79D3F34B-695C-4ECF-93D8-F8C5CE2C0FA6}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{FB36B05C-2C65-4287-8FC1-1357C9A8C49E}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{4396C910-3509-49D9-AD94-FDFD1110BEFB}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{202444C8-40C1-40C1-8A03-91A790AAA74F}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{294D6356-C559-423C-A5B6-D44DD11328FD}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{A34860B9-E98F-412E-80D5-F2DFA537D0BE}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{B4E041BF-712E-45A5-A112-8711E8C193EF}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{A2AF4065-80EC-4CD9-8B8B-5C0E9C3CE608}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{1CD9EA54-AE63-4B0A-84B3-84DDA2008AD3}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{A537E285-C8DE-45BA-8FEC-65B360422B9D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1735794A-2DB6-4A5B-8A45-238386E4B02C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B971ECE-5961-4841-B519-06D4BAEDBFC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="12">
   <si>
     <t>"&gt;</t>
   </si>
@@ -87,91 +88,31 @@
     </r>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/models-mappings.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_ConnectToInstance.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/identity-pools.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/CloudWatch-Agent-common-scenarios.html#CloudWatch-Agent-aggregating-metrics</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/what-is-datapipeline.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/Route53/latest/DeveloperGuide/dns-failover.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/lambda-x-ray.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/monitoring-functions-access-metrics.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/RequestAndResponseBehaviorS3Origin.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/conditions-section-structure.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-viewers-to-cloudfront.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-cloudfront-to-custom-origin.html</t>
-  </si>
-  <si>
     <t>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html</t>
+    <t>http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/elasticloadbalancing/latest/application/load-balancer-troubleshooting.html</t>
+    <t>https://aws.amazon.com/swf/faqs/</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/DAX.html</t>
+    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html</t>
   </si>
 </sst>
 </file>
@@ -611,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,11 +567,11 @@
     <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -638,14 +579,14 @@
       </c>
       <c r="D1" s="2" t="str">
         <f>B1</f>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html</v>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
@@ -660,14 +601,14 @@
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D30" si="0">B2</f>
-        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/models-mappings.html</v>
+        <v>http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F30" si="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/models-mappings.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/models-mappings.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html"&gt;http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
@@ -682,17 +623,17 @@
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html</v>
+        <v>https://aws.amazon.com/swf/faqs/</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/swf/faqs/"&gt;https://aws.amazon.com/swf/faqs/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -704,14 +645,14 @@
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html</v>
+        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
@@ -726,14 +667,14 @@
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html</v>
+        <v>https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html"&gt;https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.3">
@@ -748,14 +689,14 @@
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html</v>
+        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="36" x14ac:dyDescent="0.3">
@@ -770,14 +711,14 @@
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_ConnectToInstance.html</v>
+        <v>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_ConnectToInstance.html"&gt;https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_ConnectToInstance.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
@@ -792,17 +733,17 @@
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html</v>
+        <v>https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html"&gt;https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html"&gt;https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -814,454 +755,414 @@
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/identity-pools.html</v>
+        <v>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/identity-pools.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/identity-pools.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html</v>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/CloudWatch-Agent-common-scenarios.html#CloudWatch-Agent-aggregating-metrics</v>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/CloudWatch-Agent-common-scenarios.html#CloudWatch-Agent-aggregating-metrics"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/CloudWatch-Agent-common-scenarios.html#CloudWatch-Agent-aggregating-metrics&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/what-is-datapipeline.html</v>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/what-is-datapipeline.html"&gt;https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/what-is-datapipeline.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html</v>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/Route53/latest/DeveloperGuide/dns-failover.html</v>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/Route53/latest/DeveloperGuide/dns-failover.html"&gt;https://docs.aws.amazon.com/Route53/latest/DeveloperGuide/dns-failover.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html</v>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html</v>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/lambda-x-ray.html</v>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/lambda-x-ray.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/lambda-x-ray.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B18" s="5"/>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html</v>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/monitoring-functions-access-metrics.html</v>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/monitoring-functions-access-metrics.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/monitoring-functions-access-metrics.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/RequestAndResponseBehaviorS3Origin.html</v>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/RequestAndResponseBehaviorS3Origin.html"&gt;https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/RequestAndResponseBehaviorS3Origin.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/conditions-section-structure.html</v>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/conditions-section-structure.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/conditions-section-structure.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="B22" s="5"/>
       <c r="C22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html</v>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="B23" s="5"/>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html</v>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-viewers-to-cloudfront.html</v>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-viewers-to-cloudfront.html"&gt;https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-viewers-to-cloudfront.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="B25" s="5"/>
       <c r="C25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-cloudfront-to-custom-origin.html</v>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-cloudfront-to-custom-origin.html"&gt;https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-cloudfront-to-custom-origin.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B26" s="5"/>
       <c r="C26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</v>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="B27" s="5"/>
       <c r="C27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html</v>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticloadbalancing/latest/application/load-balancer-troubleshooting.html</v>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticloadbalancing/latest/application/load-balancer-troubleshooting.html"&gt;https://docs.aws.amazon.com/elasticloadbalancing/latest/application/load-balancer-troubleshooting.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="B29" s="5"/>
       <c r="C29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/DAX.html</v>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/DAX.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/DAX.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.3">
@@ -1286,37 +1187,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{AA0C68CC-FE9A-469F-9AF1-464A04BE3166}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{63E97D96-CDAB-47ED-A793-F2E463B77962}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{475666CA-C381-499C-A782-50A850B0A9ED}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{0C54473A-885D-486C-9497-0F95BB2A81C9}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{8D9A43CF-03F6-4020-A66F-6F2DF987D748}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{16D7F524-E8EA-48AF-8FE2-965EE80B196D}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{9EE858CA-8A3D-44C5-A7D6-95C74790E2C5}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{5F6F02C6-B12F-4839-83E8-AF15D1D98A25}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{2AFB5EB4-4F29-4F3B-BF9D-56B1E85BB6BB}"/>
-    <hyperlink ref="B11" r:id="rId10" location="CloudWatch-Agent-aggregating-metrics" xr:uid="{74D78696-EDC5-43BD-B559-AC95C6765162}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{F9A3AE63-F126-4C06-9A94-9EE28F3020BC}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{E0D1ED21-F1B5-49E8-A23A-275AE737B94A}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{93ADE088-500F-4934-A208-1348EEFE2E2E}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{E06A31A7-9167-4422-8004-2ADA952B4EFD}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{8C302F66-70B6-445F-8EAC-9774F24BDB74}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{EA34E5BE-8253-4321-8963-4596C38E9893}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{7B4FBC5F-13DF-474F-B2B6-40F067E12E7F}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{2D0C3428-51E7-4A98-A619-7F180AF6BF2F}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{79D3F34B-695C-4ECF-93D8-F8C5CE2C0FA6}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{FB36B05C-2C65-4287-8FC1-1357C9A8C49E}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{4396C910-3509-49D9-AD94-FDFD1110BEFB}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{202444C8-40C1-40C1-8A03-91A790AAA74F}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{294D6356-C559-423C-A5B6-D44DD11328FD}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{A34860B9-E98F-412E-80D5-F2DFA537D0BE}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{B4E041BF-712E-45A5-A112-8711E8C193EF}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{A2AF4065-80EC-4CD9-8B8B-5C0E9C3CE608}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{1CD9EA54-AE63-4B0A-84B3-84DDA2008AD3}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{A537E285-C8DE-45BA-8FEC-65B360422B9D}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{AF43EA1E-E6A6-4E2C-A13C-620824D078BA}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{93360CD6-3D49-40D9-9D49-AB8F92901F2A}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{1F2FA02F-7A5C-40E0-8CA3-E4B92C784A0F}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{53EF766F-3858-4F12-BE1D-61197D319565}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{DE8C9711-72F5-4664-8919-930BF2B82A37}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{858AD4C2-CBDD-41F8-A6AB-FC8EE2CE9CDF}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{7476FC69-F396-48A9-AA61-E54DB52ACA71}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{DFE812D3-21B7-42E6-9D2B-C4DCCA5A4DF6}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{2078CAAF-3971-42CD-8FBA-ABF0774DCA31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B971ECE-5961-4841-B519-06D4BAEDBFC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E150F89-1533-4E43-8168-3D1C1818F17D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="22">
   <si>
     <t>"&gt;</t>
   </si>
@@ -91,28 +91,58 @@
     <t>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</t>
   </si>
   <si>
-    <t>http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/swf/faqs/</t>
-  </si>
-  <si>
     <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html</t>
+    <t>https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/mpuoverview.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/articles/1233/</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.CoreComponents.html</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/faqs/#Billing</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/codebuild/latest/userguide/concepts.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/codebuild/latest/userguide/getting-started.html#getting-started-build-log</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/streams/latest/dev/what-is-sse.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/elasticloadbalancing/latest/userguide/how-elastic-load-balancing-works.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/Stop_Start.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-segments</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-daemon</t>
   </si>
 </sst>
 </file>
@@ -552,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F9"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,114 +597,114 @@
     <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>B1</f>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</v>
+        <v>https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/"&gt;https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D30" si="0">B2</f>
-        <v>http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html</v>
+        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/mpuoverview.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F30" si="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html"&gt;http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/mpuoverview.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/mpuoverview.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/swf/faqs/</v>
+        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/swf/faqs/"&gt;https://aws.amazon.com/swf/faqs/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html</v>
+        <v>https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html</v>
+        <v>https://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html"&gt;https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.3">
@@ -682,287 +712,307 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html</v>
+        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html</v>
+        <v>https://aws.amazon.com/articles/1233/</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/articles/1233/"&gt;https://aws.amazon.com/articles/1233/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html</v>
+        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.CoreComponents.html</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html"&gt;https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.CoreComponents.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.CoreComponents.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html</v>
+        <v>https://aws.amazon.com/ec2/faqs/#Billing</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/ec2/faqs/#Billing"&gt;https://aws.amazon.com/ec2/faqs/#Billing&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/codebuild/latest/userguide/concepts.html</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/concepts.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/concepts.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/codebuild/latest/userguide/getting-started.html#getting-started-build-log</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/getting-started.html#getting-started-build-log"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/getting-started.html#getting-started-build-log&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/streams/latest/dev/what-is-sse.html</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/streams/latest/dev/what-is-sse.html"&gt;https://docs.aws.amazon.com/streams/latest/dev/what-is-sse.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://docs.aws.amazon.com/elasticloadbalancing/latest/userguide/how-elastic-load-balancing-works.html</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/elasticloadbalancing/latest/userguide/how-elastic-load-balancing-works.html"&gt;http://docs.aws.amazon.com/elasticloadbalancing/latest/userguide/how-elastic-load-balancing-works.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/Stop_Start.html</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/Stop_Start.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/Stop_Start.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html"&gt;https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-segments</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-segments"&gt;https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-segments&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-daemon</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-daemon"&gt;https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-daemon&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="36" x14ac:dyDescent="0.3">
@@ -1005,7 +1055,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1045,7 +1095,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1065,7 +1115,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1135,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1125,7 +1175,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1145,7 +1195,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -1187,18 +1237,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{AF43EA1E-E6A6-4E2C-A13C-620824D078BA}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{93360CD6-3D49-40D9-9D49-AB8F92901F2A}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{1F2FA02F-7A5C-40E0-8CA3-E4B92C784A0F}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{53EF766F-3858-4F12-BE1D-61197D319565}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{DE8C9711-72F5-4664-8919-930BF2B82A37}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{858AD4C2-CBDD-41F8-A6AB-FC8EE2CE9CDF}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{7476FC69-F396-48A9-AA61-E54DB52ACA71}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{DFE812D3-21B7-42E6-9D2B-C4DCCA5A4DF6}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{2078CAAF-3971-42CD-8FBA-ABF0774DCA31}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{7DA98032-FAAA-459C-9D14-ED50672A1479}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{4EB367AB-A7E1-42C0-89E2-2068DD69E036}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{122648E8-4DAA-4B27-BFC6-1B9055158B39}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{0D2B105A-B111-4FDA-8759-0DF87E8B27DD}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{1F22EE71-81ED-48F1-B5ED-E6B8A30643BD}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{3D247DB8-144F-4613-9B39-99CC863FFFDD}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{E0949DE6-5E35-464E-A1C7-FA2749830D7C}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{59881BCA-6BAA-4BD2-A09C-DEC0768A54AC}"/>
+    <hyperlink ref="B9" r:id="rId9" location="Billing" xr:uid="{98B49D05-2D83-4E17-B8F9-36DDDDBFB8DF}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{BC995DD4-B580-4C75-AF85-C1CBCC34BA39}"/>
+    <hyperlink ref="B11" r:id="rId11" location="getting-started-build-log" xr:uid="{26E6124D-19F5-4794-9766-E60FE79B7C0D}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{84FE44CA-9D25-4F43-8595-E1A43FC493B4}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{F096F3F8-CD2D-464B-86CB-56BE6858E24D}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{4F6F763B-EBFC-4E05-BF7D-5A5AF40883F5}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{A222E226-A97B-4B97-B094-D91BA717C437}"/>
+    <hyperlink ref="B16" r:id="rId16" xr:uid="{4AC55003-10DC-46D1-9E05-96A027361C60}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{A5204A1D-ECA2-4CA2-B346-5907679C5B4F}"/>
+    <hyperlink ref="B18" r:id="rId18" location="xray-api-segments" xr:uid="{705A661F-D007-4286-9E50-2112CCE113CD}"/>
+    <hyperlink ref="B19" r:id="rId19" location="xray-api-daemon" xr:uid="{41DDC47B-B74A-4991-89D0-5AC5BB9320F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E150F89-1533-4E43-8168-3D1C1818F17D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20814240-044C-42F0-AF66-1DFDA8C41683}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="24">
   <si>
     <t>"&gt;</t>
   </si>
@@ -91,58 +91,64 @@
     <t>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</t>
   </si>
   <si>
-    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html</t>
-  </si>
-  <si>
     <t>https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/</t>
   </si>
   <si>
-    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/mpuoverview.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html</t>
-  </si>
-  <si>
     <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/articles/1233/</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.CoreComponents.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/faqs/#Billing</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/codebuild/latest/userguide/concepts.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/codebuild/latest/userguide/getting-started.html#getting-started-build-log</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/streams/latest/dev/what-is-sse.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/elasticloadbalancing/latest/userguide/how-elastic-load-balancing-works.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/Stop_Start.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-segments</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-daemon</t>
+    <t>http://docs.aws.amazon.com/amazonswf/latest/developerguide/swf-dg-develop-activity.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-daemon</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/with-userapp-walkthrough-custom-events-create-iam-role.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/using-regions-availability-zones.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/cli/latest/reference/ec2/import-key-pair.html</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/sqs/faqs/</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/FIFO-queues.html#FIFO-queues-understanding-logic</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/codedeploy/latest/userguide/reference-appspec-file-structure-hooks.html#reference-appspec-file-structure-hooks-run-order</t>
+  </si>
+  <si>
+    <t>https://d0.awsstatic.com/whitepapers/aws-security-whitepaper.pdf</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/dynamodb/faqs/</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/serverless-application-model/latest/developerguide/serverless-deploying.html</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/rds/details/read-replicas/</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/managing-security.html</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/dynamodb/dax/</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/codedeploy/latest/userguide/deployments.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html</t>
   </si>
 </sst>
 </file>
@@ -582,44 +588,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F19"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="86.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="96.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="104.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="103.44140625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>B1</f>
-        <v>https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/</v>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/"&gt;https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -631,17 +637,17 @@
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D30" si="0">B2</f>
-        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/mpuoverview.html</v>
+        <v>http://docs.aws.amazon.com/amazonswf/latest/developerguide/swf-dg-develop-activity.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F30" si="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/mpuoverview.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/mpuoverview.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/amazonswf/latest/developerguide/swf-dg-develop-activity.html"&gt;http://docs.aws.amazon.com/amazonswf/latest/developerguide/swf-dg-develop-activity.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -653,14 +659,14 @@
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html</v>
+        <v>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-daemon</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-daemon"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-daemon&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
@@ -675,17 +681,17 @@
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html</v>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/with-userapp-walkthrough-custom-events-create-iam-role.html</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/with-userapp-walkthrough-custom-events-create-iam-role.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/with-userapp-walkthrough-custom-events-create-iam-role.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -697,17 +703,17 @@
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html</v>
+        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/using-regions-availability-zones.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/using-regions-availability-zones.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/using-regions-availability-zones.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -719,17 +725,17 @@
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</v>
+        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -741,17 +747,17 @@
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/articles/1233/</v>
+        <v>https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/articles/1233/"&gt;https://aws.amazon.com/articles/1233/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/"&gt;https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -763,17 +769,17 @@
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.CoreComponents.html</v>
+        <v>http://docs.aws.amazon.com/cli/latest/reference/ec2/import-key-pair.html</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.CoreComponents.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.CoreComponents.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/cli/latest/reference/ec2/import-key-pair.html"&gt;http://docs.aws.amazon.com/cli/latest/reference/ec2/import-key-pair.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -785,17 +791,17 @@
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/ec2/faqs/#Billing</v>
+        <v>https://aws.amazon.com/sqs/faqs/</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/ec2/faqs/#Billing"&gt;https://aws.amazon.com/ec2/faqs/#Billing&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/sqs/faqs/"&gt;https://aws.amazon.com/sqs/faqs/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -807,17 +813,17 @@
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/codebuild/latest/userguide/concepts.html</v>
+        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/FIFO-queues.html#FIFO-queues-understanding-logic</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/concepts.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/concepts.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/FIFO-queues.html#FIFO-queues-understanding-logic"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/FIFO-queues.html#FIFO-queues-understanding-logic&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -829,14 +835,14 @@
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/codebuild/latest/userguide/getting-started.html#getting-started-build-log</v>
+        <v>https://docs.aws.amazon.com/codedeploy/latest/userguide/reference-appspec-file-structure-hooks.html#reference-appspec-file-structure-hooks-run-order</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/getting-started.html#getting-started-build-log"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/getting-started.html#getting-started-build-log&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/codedeploy/latest/userguide/reference-appspec-file-structure-hooks.html#reference-appspec-file-structure-hooks-run-order"&gt;https://docs.aws.amazon.com/codedeploy/latest/userguide/reference-appspec-file-structure-hooks.html#reference-appspec-file-structure-hooks-run-order&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.3">
@@ -851,17 +857,17 @@
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/streams/latest/dev/what-is-sse.html</v>
+        <v>https://d0.awsstatic.com/whitepapers/aws-security-whitepaper.pdf</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/streams/latest/dev/what-is-sse.html"&gt;https://docs.aws.amazon.com/streams/latest/dev/what-is-sse.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://d0.awsstatic.com/whitepapers/aws-security-whitepaper.pdf"&gt;https://d0.awsstatic.com/whitepapers/aws-security-whitepaper.pdf&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -873,58 +879,58 @@
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/elasticloadbalancing/latest/userguide/how-elastic-load-balancing-works.html</v>
+        <v>https://aws.amazon.com/dynamodb/faqs/</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/elasticloadbalancing/latest/userguide/how-elastic-load-balancing-works.html"&gt;http://docs.aws.amazon.com/elasticloadbalancing/latest/userguide/how-elastic-load-balancing-works.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/dynamodb/faqs/"&gt;https://aws.amazon.com/dynamodb/faqs/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/serverless-application-model/latest/developerguide/serverless-deploying.html</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/serverless-application-model/latest/developerguide/serverless-deploying.html"&gt;https://docs.aws.amazon.com/serverless-application-model/latest/developerguide/serverless-deploying.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</v>
+        <v>https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/"&gt;https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" x14ac:dyDescent="0.3">
@@ -932,24 +938,24 @@
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/Stop_Start.html</v>
+        <v>https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/Stop_Start.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/Stop_Start.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -961,14 +967,14 @@
       </c>
       <c r="D17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html</v>
+        <v>https://aws.amazon.com/rds/details/read-replicas/</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html"&gt;https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/rds/details/read-replicas/"&gt;https://aws.amazon.com/rds/details/read-replicas/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.3">
@@ -983,17 +989,17 @@
       </c>
       <c r="D18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-segments</v>
+        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/managing-security.html</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-segments"&gt;https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-segments&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/managing-security.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/managing-security.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1005,57 +1011,61 @@
       </c>
       <c r="D19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-daemon</v>
+        <v>https://aws.amazon.com/dynamodb/dax/</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-daemon"&gt;https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-daemon&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/dynamodb/dax/"&gt;https://aws.amazon.com/dynamodb/dax/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/codedeploy/latest/userguide/deployments.html</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/codedeploy/latest/userguide/deployments.html"&gt;https://docs.aws.amazon.com/codedeploy/latest/userguide/deployments.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1075,7 +1085,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1095,7 +1105,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1115,7 +1125,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1145,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1155,7 +1165,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -1175,7 +1185,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1195,7 +1205,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -1215,7 +1225,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1237,28 +1247,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{7DA98032-FAAA-459C-9D14-ED50672A1479}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{4EB367AB-A7E1-42C0-89E2-2068DD69E036}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{122648E8-4DAA-4B27-BFC6-1B9055158B39}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{0D2B105A-B111-4FDA-8759-0DF87E8B27DD}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{1F22EE71-81ED-48F1-B5ED-E6B8A30643BD}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{3D247DB8-144F-4613-9B39-99CC863FFFDD}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{E0949DE6-5E35-464E-A1C7-FA2749830D7C}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{59881BCA-6BAA-4BD2-A09C-DEC0768A54AC}"/>
-    <hyperlink ref="B9" r:id="rId9" location="Billing" xr:uid="{98B49D05-2D83-4E17-B8F9-36DDDDBFB8DF}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{BC995DD4-B580-4C75-AF85-C1CBCC34BA39}"/>
-    <hyperlink ref="B11" r:id="rId11" location="getting-started-build-log" xr:uid="{26E6124D-19F5-4794-9766-E60FE79B7C0D}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{84FE44CA-9D25-4F43-8595-E1A43FC493B4}"/>
-    <hyperlink ref="B13" r:id="rId13" xr:uid="{F096F3F8-CD2D-464B-86CB-56BE6858E24D}"/>
-    <hyperlink ref="B14" r:id="rId14" xr:uid="{4F6F763B-EBFC-4E05-BF7D-5A5AF40883F5}"/>
-    <hyperlink ref="B15" r:id="rId15" xr:uid="{A222E226-A97B-4B97-B094-D91BA717C437}"/>
-    <hyperlink ref="B16" r:id="rId16" xr:uid="{4AC55003-10DC-46D1-9E05-96A027361C60}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{A5204A1D-ECA2-4CA2-B346-5907679C5B4F}"/>
-    <hyperlink ref="B18" r:id="rId18" location="xray-api-segments" xr:uid="{705A661F-D007-4286-9E50-2112CCE113CD}"/>
-    <hyperlink ref="B19" r:id="rId19" location="xray-api-daemon" xr:uid="{41DDC47B-B74A-4991-89D0-5AC5BB9320F5}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{58080D2C-81B0-4545-B057-6876327DCDD3}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{BD214B9B-EAAE-4CED-AC4C-42A48D1FCF6E}"/>
+    <hyperlink ref="B3" r:id="rId3" location="worker-daemon" xr:uid="{DBD5A4F8-A853-40B3-ABBD-1834AE2C924E}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{BF20687A-6C05-4EEA-851B-89352B989B5E}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{9AA86558-6A5D-46CA-89D3-5A59F983BBBC}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{4A5895EA-F5A8-46F3-AD8F-BCE6427789EA}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{36B209D7-AFDC-4621-A8BA-D3CAB474554A}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{C3D84C34-1721-42F1-8541-0E28C38E5F86}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{8072AA9E-E651-47FC-A97F-F62A0A6A8C4E}"/>
+    <hyperlink ref="B10" r:id="rId10" location="FIFO-queues-understanding-logic" xr:uid="{AD19D600-F484-4A3D-9D2C-890299DF3042}"/>
+    <hyperlink ref="B11" r:id="rId11" location="reference-appspec-file-structure-hooks-run-order" xr:uid="{0E2DF889-AB6E-4A67-B8CA-75CB9AC309A7}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{40ACD13C-DDFD-4AF6-B4A3-9290306FCB28}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{65898932-DDB5-4A22-BEA9-56250600E301}"/>
+    <hyperlink ref="B14" r:id="rId14" xr:uid="{D8B83972-9A86-4225-84D5-8F9092CC25B7}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{3C9A7B45-FB8F-4716-A9B6-8DADFD69C477}"/>
+    <hyperlink ref="B16" r:id="rId16" xr:uid="{B8B0335F-7154-4A87-A14B-09F48DE0442F}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{10B921CC-EBA8-431E-9F76-6F0A4755324A}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{2B594E76-6657-41CC-9876-A02EFE5823C8}"/>
+    <hyperlink ref="B19" r:id="rId19" xr:uid="{D183FFFD-2156-418C-B111-6457F76A70E6}"/>
+    <hyperlink ref="B20" r:id="rId20" xr:uid="{3D3F1DA8-0276-47AC-8351-A4CA036AA153}"/>
+    <hyperlink ref="B21" r:id="rId21" xr:uid="{09F76465-87B9-4EBB-9620-26B3BF6DD9F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20814240-044C-42F0-AF66-1DFDA8C41683}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A514B0-5CB5-48F6-89B9-46F9F8DC5E95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="12">
   <si>
     <t>"&gt;</t>
   </si>
@@ -88,67 +88,31 @@
     </r>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</t>
+    <t>http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-getting-started.html</t>
   </si>
   <si>
-    <t>https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/</t>
+    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/AmazonEBS.html</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html</t>
+    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSVolumes.html#EBSFeatures</t>
   </si>
   <si>
-    <t>http://docs.aws.amazon.com/amazonswf/latest/developerguide/swf-dg-develop-activity.html</t>
+    <t>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html</t>
   </si>
   <si>
-    <t>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-daemon</t>
+    <t>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-cli-package.html</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/with-userapp-walkthrough-custom-events-create-iam-role.html</t>
+    <t>https://aws.amazon.com/codebuild/faqs/</t>
   </si>
   <si>
-    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/using-regions-availability-zones.html</t>
+    <t>https://docs.aws.amazon.com/AWSSimpleQueueService/2009-02-01/SQSDeveloperGuide/index.html?IntroductionArticle.html</t>
   </si>
   <si>
-    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html</t>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html</t>
   </si>
   <si>
-    <t>https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/cli/latest/reference/ec2/import-key-pair.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/sqs/faqs/</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/FIFO-queues.html#FIFO-queues-understanding-logic</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/codedeploy/latest/userguide/reference-appspec-file-structure-hooks.html#reference-appspec-file-structure-hooks-run-order</t>
-  </si>
-  <si>
-    <t>https://d0.awsstatic.com/whitepapers/aws-security-whitepaper.pdf</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/dynamodb/faqs/</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/serverless-application-model/latest/developerguide/serverless-deploying.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/rds/details/read-replicas/</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/managing-security.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/dynamodb/dax/</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/codedeploy/latest/userguide/deployments.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html</t>
+    <t>https://docs.aws.amazon.com/opsworks/latest/userguide/troubleshoot-debug.html</t>
   </si>
 </sst>
 </file>
@@ -588,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,7 +567,7 @@
     <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -615,102 +579,102 @@
       </c>
       <c r="D1" s="2" t="str">
         <f>B1</f>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</v>
+        <v>http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-getting-started.html</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-getting-started.html"&gt;http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-getting-started.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D30" si="0">B2</f>
-        <v>http://docs.aws.amazon.com/amazonswf/latest/developerguide/swf-dg-develop-activity.html</v>
+        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/AmazonEBS.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F30" si="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/amazonswf/latest/developerguide/swf-dg-develop-activity.html"&gt;http://docs.aws.amazon.com/amazonswf/latest/developerguide/swf-dg-develop-activity.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/AmazonEBS.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/AmazonEBS.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSVolumes.html#EBSFeatures</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSVolumes.html#EBSFeatures"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSVolumes.html#EBSFeatures&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-daemon</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-daemon"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-daemon&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/with-userapp-walkthrough-custom-events-create-iam-role.html</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/with-userapp-walkthrough-custom-events-create-iam-role.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/with-userapp-walkthrough-custom-events-create-iam-role.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/using-regions-availability-zones.html</v>
+        <v>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-cli-package.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/using-regions-availability-zones.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/using-regions-availability-zones.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-cli-package.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-cli-package.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -718,351 +682,327 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://aws.amazon.com/codebuild/faqs/</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="https://aws.amazon.com/codebuild/faqs/"&gt;https://aws.amazon.com/codebuild/faqs/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/AWSSimpleQueueService/2009-02-01/SQSDeveloperGuide/index.html?IntroductionArticle.html</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/AWSSimpleQueueService/2009-02-01/SQSDeveloperGuide/index.html?IntroductionArticle.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/2009-02-01/SQSDeveloperGuide/index.html?IntroductionArticle.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/"&gt;https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/cli/latest/reference/ec2/import-key-pair.html</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/cli/latest/reference/ec2/import-key-pair.html"&gt;http://docs.aws.amazon.com/cli/latest/reference/ec2/import-key-pair.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/sqs/faqs/</v>
+        <v>https://docs.aws.amazon.com/opsworks/latest/userguide/troubleshoot-debug.html</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/sqs/faqs/"&gt;https://aws.amazon.com/sqs/faqs/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/opsworks/latest/userguide/troubleshoot-debug.html"&gt;https://docs.aws.amazon.com/opsworks/latest/userguide/troubleshoot-debug.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/FIFO-queues.html#FIFO-queues-understanding-logic</v>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/FIFO-queues.html#FIFO-queues-understanding-logic"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/FIFO-queues.html#FIFO-queues-understanding-logic&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/codedeploy/latest/userguide/reference-appspec-file-structure-hooks.html#reference-appspec-file-structure-hooks-run-order</v>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codedeploy/latest/userguide/reference-appspec-file-structure-hooks.html#reference-appspec-file-structure-hooks-run-order"&gt;https://docs.aws.amazon.com/codedeploy/latest/userguide/reference-appspec-file-structure-hooks.html#reference-appspec-file-structure-hooks-run-order&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://d0.awsstatic.com/whitepapers/aws-security-whitepaper.pdf</v>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://d0.awsstatic.com/whitepapers/aws-security-whitepaper.pdf"&gt;https://d0.awsstatic.com/whitepapers/aws-security-whitepaper.pdf&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/dynamodb/faqs/</v>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/dynamodb/faqs/"&gt;https://aws.amazon.com/dynamodb/faqs/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/serverless-application-model/latest/developerguide/serverless-deploying.html</v>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/serverless-application-model/latest/developerguide/serverless-deploying.html"&gt;https://docs.aws.amazon.com/serverless-application-model/latest/developerguide/serverless-deploying.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/</v>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/"&gt;https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html</v>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/rds/details/read-replicas/</v>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/rds/details/read-replicas/"&gt;https://aws.amazon.com/rds/details/read-replicas/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B18" s="5"/>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/managing-security.html</v>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/managing-security.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/managing-security.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/dynamodb/dax/</v>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/dynamodb/dax/"&gt;https://aws.amazon.com/dynamodb/dax/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/codedeploy/latest/userguide/deployments.html</v>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codedeploy/latest/userguide/deployments.html"&gt;https://docs.aws.amazon.com/codedeploy/latest/userguide/deployments.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html</v>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1247,30 +1187,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{58080D2C-81B0-4545-B057-6876327DCDD3}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{BD214B9B-EAAE-4CED-AC4C-42A48D1FCF6E}"/>
-    <hyperlink ref="B3" r:id="rId3" location="worker-daemon" xr:uid="{DBD5A4F8-A853-40B3-ABBD-1834AE2C924E}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{BF20687A-6C05-4EEA-851B-89352B989B5E}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{9AA86558-6A5D-46CA-89D3-5A59F983BBBC}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{4A5895EA-F5A8-46F3-AD8F-BCE6427789EA}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{36B209D7-AFDC-4621-A8BA-D3CAB474554A}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{C3D84C34-1721-42F1-8541-0E28C38E5F86}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{8072AA9E-E651-47FC-A97F-F62A0A6A8C4E}"/>
-    <hyperlink ref="B10" r:id="rId10" location="FIFO-queues-understanding-logic" xr:uid="{AD19D600-F484-4A3D-9D2C-890299DF3042}"/>
-    <hyperlink ref="B11" r:id="rId11" location="reference-appspec-file-structure-hooks-run-order" xr:uid="{0E2DF889-AB6E-4A67-B8CA-75CB9AC309A7}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{40ACD13C-DDFD-4AF6-B4A3-9290306FCB28}"/>
-    <hyperlink ref="B13" r:id="rId13" xr:uid="{65898932-DDB5-4A22-BEA9-56250600E301}"/>
-    <hyperlink ref="B14" r:id="rId14" xr:uid="{D8B83972-9A86-4225-84D5-8F9092CC25B7}"/>
-    <hyperlink ref="B15" r:id="rId15" xr:uid="{3C9A7B45-FB8F-4716-A9B6-8DADFD69C477}"/>
-    <hyperlink ref="B16" r:id="rId16" xr:uid="{B8B0335F-7154-4A87-A14B-09F48DE0442F}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{10B921CC-EBA8-431E-9F76-6F0A4755324A}"/>
-    <hyperlink ref="B18" r:id="rId18" xr:uid="{2B594E76-6657-41CC-9876-A02EFE5823C8}"/>
-    <hyperlink ref="B19" r:id="rId19" xr:uid="{D183FFFD-2156-418C-B111-6457F76A70E6}"/>
-    <hyperlink ref="B20" r:id="rId20" xr:uid="{3D3F1DA8-0276-47AC-8351-A4CA036AA153}"/>
-    <hyperlink ref="B21" r:id="rId21" xr:uid="{09F76465-87B9-4EBB-9620-26B3BF6DD9F4}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{C285027C-82C6-4AA2-8CE7-F1B80623D187}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{F0143ACE-E496-4400-B842-902940788D83}"/>
+    <hyperlink ref="B3" r:id="rId3" location="EBSFeatures" xr:uid="{E2D42D2D-A61B-4DA5-A60D-BF67667647F2}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{23C9767B-5C42-472B-80A7-0C7B28F0769F}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{43145B79-2A42-4017-9BC0-BB8A1C5BBC9A}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{AE8552C7-7FAF-4BC9-A1B0-73DBD81220ED}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{F99C9AB6-BECC-4678-989D-F1E911D57F3D}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{B5610DD9-4390-4EE8-B1BB-10AF3E85CE2F}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{07C75828-F0A4-46CC-9918-448E38BE2504}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A514B0-5CB5-48F6-89B9-46F9F8DC5E95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3293DC-F61B-4107-B40B-E1FECDC7CA1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="22">
   <si>
     <t>"&gt;</t>
   </si>
@@ -88,31 +87,61 @@
     </r>
   </si>
   <si>
-    <t>http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-getting-started.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/AmazonEBS.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSVolumes.html#EBSFeatures</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-cli-package.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/codebuild/faqs/</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AWSSimpleQueueService/2009-02-01/SQSDeveloperGuide/index.html?IntroductionArticle.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/opsworks/latest/userguide/troubleshoot-debug.html</t>
+    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html#sqs-inflight-messages</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-deadletter</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.environments.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/env_variables.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/lambda/latest/dg/limits.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/lcome.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/sns/latest/gsg/CreateTopic.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-create-queue.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-updating-stacks-changesets.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKey.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/general/latest/gr/api-retries.html</t>
   </si>
 </sst>
 </file>
@@ -552,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F9"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +596,7 @@
     <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -579,14 +608,14 @@
       </c>
       <c r="D1" s="2" t="str">
         <f>B1</f>
-        <v>http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-getting-started.html</v>
+        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-getting-started.html"&gt;http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-getting-started.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.3">
@@ -601,17 +630,17 @@
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D30" si="0">B2</f>
-        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/AmazonEBS.html</v>
+        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html#sqs-inflight-messages</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F30" si="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/AmazonEBS.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/AmazonEBS.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html#sqs-inflight-messages"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html#sqs-inflight-messages&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -623,17 +652,17 @@
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSVolumes.html#EBSFeatures</v>
+        <v>http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSVolumes.html#EBSFeatures"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSVolumes.html#EBSFeatures&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt"&gt;http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -645,14 +674,14 @@
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html</v>
+        <v>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-deadletter</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-deadletter"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-deadletter&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
@@ -667,17 +696,17 @@
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-cli-package.html</v>
+        <v>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.environments.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-cli-package.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-cli-package.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.environments.html"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.environments.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -689,17 +718,17 @@
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/codebuild/faqs/</v>
+        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/codebuild/faqs/"&gt;https://aws.amazon.com/codebuild/faqs/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -711,17 +740,17 @@
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AWSSimpleQueueService/2009-02-01/SQSDeveloperGuide/index.html?IntroductionArticle.html</v>
+        <v>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AWSSimpleQueueService/2009-02-01/SQSDeveloperGuide/index.html?IntroductionArticle.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/2009-02-01/SQSDeveloperGuide/index.html?IntroductionArticle.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -733,17 +762,17 @@
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html</v>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/env_variables.html</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/env_variables.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/env_variables.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -755,217 +784,237 @@
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/opsworks/latest/userguide/troubleshoot-debug.html</v>
+        <v>http://docs.aws.amazon.com/lambda/latest/dg/limits.html</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/opsworks/latest/userguide/troubleshoot-debug.html"&gt;https://docs.aws.amazon.com/opsworks/latest/userguide/troubleshoot-debug.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;http://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/lcome.html</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/lcome.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/lcome.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://docs.aws.amazon.com/sns/latest/gsg/CreateTopic.html</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/sns/latest/gsg/CreateTopic.html"&gt;http://docs.aws.amazon.com/sns/latest/gsg/CreateTopic.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-create-queue.html</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-create-queue.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-create-queue.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-updating-stacks-changesets.html</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-updating-stacks-changesets.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-updating-stacks-changesets.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKey.html</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKey.html"&gt;https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKey.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/general/latest/gr/api-retries.html</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/api-retries.html"&gt;https://docs.aws.amazon.com/general/latest/gr/api-retries.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -985,7 +1034,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1186,19 +1235,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{C285027C-82C6-4AA2-8CE7-F1B80623D187}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{F0143ACE-E496-4400-B842-902940788D83}"/>
-    <hyperlink ref="B3" r:id="rId3" location="EBSFeatures" xr:uid="{E2D42D2D-A61B-4DA5-A60D-BF67667647F2}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{23C9767B-5C42-472B-80A7-0C7B28F0769F}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{43145B79-2A42-4017-9BC0-BB8A1C5BBC9A}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{AE8552C7-7FAF-4BC9-A1B0-73DBD81220ED}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{F99C9AB6-BECC-4678-989D-F1E911D57F3D}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{B5610DD9-4390-4EE8-B1BB-10AF3E85CE2F}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{07C75828-F0A4-46CC-9918-448E38BE2504}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3293DC-F61B-4107-B40B-E1FECDC7CA1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B40564-EFD3-4065-A244-95420C740654}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="14">
   <si>
     <t>"&gt;</t>
   </si>
@@ -87,61 +87,37 @@
     </r>
   </si>
   <si>
-    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html#sqs-inflight-messages</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-deadletter</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.environments.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/env_variables.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/lambda/latest/dg/limits.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/lcome.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/sns/latest/gsg/CreateTopic.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-create-queue.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-updating-stacks-changesets.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKey.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/general/latest/gr/api-retries.html</t>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/dp-concepts-datanodes.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/UsingWithRDS.SSL.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/sns/latest/dg/message-filtering.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/serverless-deploy-wt.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html</t>
   </si>
 </sst>
 </file>
@@ -581,176 +557,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="104.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="90.109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="2.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="45.109375" style="4" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="103.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="159.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>B1</f>
-        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html</v>
+        <v>https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D30" si="0">B2</f>
-        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html#sqs-inflight-messages</v>
+        <v>https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/dp-concepts-datanodes.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F30" si="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html#sqs-inflight-messages"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html#sqs-inflight-messages&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/dp-concepts-datanodes.html"&gt;https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/dp-concepts-datanodes.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt</v>
+        <v>https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/UsingWithRDS.SSL.html</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt"&gt;http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/UsingWithRDS.SSL.html"&gt;https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/UsingWithRDS.SSL.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-deadletter</v>
+        <v>https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-deadletter"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-deadletter&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html"&gt;https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.environments.html</v>
+        <v>https://docs.aws.amazon.com/sns/latest/dg/message-filtering.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.environments.html"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.environments.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/sns/latest/dg/message-filtering.html"&gt;https://docs.aws.amazon.com/sns/latest/dg/message-filtering.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html</v>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/serverless-deploy-wt.html</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/serverless-deploy-wt.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/serverless-deploy-wt.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html</v>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -762,14 +738,14 @@
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/env_variables.html</v>
+        <v>https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/env_variables.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/env_variables.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html"&gt;https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -784,17 +760,17 @@
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/lambda/latest/dg/limits.html</v>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;http://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -806,14 +782,14 @@
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html</v>
+        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -828,193 +804,177 @@
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/lcome.html</v>
+        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/lcome.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/lcome.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/sns/latest/gsg/CreateTopic.html</v>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/sns/latest/gsg/CreateTopic.html"&gt;http://docs.aws.amazon.com/sns/latest/gsg/CreateTopic.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-create-queue.html</v>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-create-queue.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-create-queue.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-updating-stacks-changesets.html</v>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-updating-stacks-changesets.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-updating-stacks-changesets.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html</v>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html</v>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKey.html</v>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKey.html"&gt;https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKey.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B18" s="5"/>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html</v>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/general/latest/gr/api-retries.html</v>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/api-retries.html"&gt;https://docs.aws.amazon.com/general/latest/gr/api-retries.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +994,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1054,7 +1014,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B40564-EFD3-4065-A244-95420C740654}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF80E15-FEAF-4DC2-8A34-35531F6088DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="11">
   <si>
     <t>"&gt;</t>
   </si>
@@ -87,37 +87,28 @@
     </r>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html</t>
+    <t>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-attributes.html</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html</t>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/dp-concepts-datanodes.html</t>
+    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/UsingWithRDS.SSL.html</t>
+    <t>https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html</t>
+    <t>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-delay-queues.html</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/sns/latest/dg/message-filtering.html</t>
+    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/serverless-deploy-wt.html</t>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.as.html</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html</t>
+    <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/troubleshooting.html</t>
   </si>
 </sst>
 </file>
@@ -558,7 +549,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F11"/>
+      <selection activeCell="F1" sqref="F1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,21 +568,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>B1</f>
-        <v>https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html</v>
+        <v>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-attributes.html</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-attributes.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-attributes.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -599,21 +590,21 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D30" si="0">B2</f>
-        <v>https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/dp-concepts-datanodes.html</v>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F30" si="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/dp-concepts-datanodes.html"&gt;https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/dp-concepts-datanodes.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -621,21 +612,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/UsingWithRDS.SSL.html</v>
+        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/UsingWithRDS.SSL.html"&gt;https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/UsingWithRDS.SSL.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -643,21 +634,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html</v>
+        <v>https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html"&gt;https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/"&gt;https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -665,21 +656,21 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/sns/latest/dg/message-filtering.html</v>
+        <v>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-delay-queues.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/sns/latest/dg/message-filtering.html"&gt;https://docs.aws.amazon.com/sns/latest/dg/message-filtering.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-delay-queues.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-delay-queues.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -687,21 +678,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/serverless-deploy-wt.html</v>
+        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/serverless-deploy-wt.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/serverless-deploy-wt.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -709,21 +700,21 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html</v>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.as.html</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.as.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.as.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -738,83 +729,77 @@
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html</v>
+        <v>https://docs.aws.amazon.com/AmazonS3/latest/dev/troubleshooting.html</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html"&gt;https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/troubleshooting.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/troubleshooting.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html</v>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html</v>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html</v>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -834,7 +819,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -914,7 +899,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -934,7 +919,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -954,7 +939,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -974,7 +959,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -994,7 +979,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +999,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF80E15-FEAF-4DC2-8A34-35531F6088DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76408DB-E17B-4406-9B39-D4CDC1602771}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="19">
   <si>
     <t>"&gt;</t>
   </si>
@@ -87,28 +87,52 @@
     </r>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-attributes.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html</t>
-  </si>
-  <si>
     <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</t>
   </si>
   <si>
-    <t>https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-delay-queues.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.as.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/troubleshooting.html</t>
+    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-cors.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/firehose/latest/dev/encryption.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/codepipeline/latest/userguide/best-practices.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/general/latest/gr/api-retries.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environments-updating.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonElastiCache/latest/red-ug/elasticache-use-cases.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/get-started-create-function.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/with-sqs.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/concepts.concepts.design.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Query.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/customize-gateway-responses.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/create_deploy_docker.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/eb-cli3.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html</t>
   </si>
 </sst>
 </file>
@@ -549,7 +573,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F8"/>
+      <selection activeCell="B1" sqref="B1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,21 +592,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>B1</f>
-        <v>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-attributes.html</v>
+        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-cors.html</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-attributes.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-attributes.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-cors.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-cors.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -590,21 +614,21 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D30" si="0">B2</f>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html</v>
+        <v>https://docs.aws.amazon.com/firehose/latest/dev/encryption.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F30" si="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/firehose/latest/dev/encryption.html"&gt;https://docs.aws.amazon.com/firehose/latest/dev/encryption.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -612,21 +636,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</v>
+        <v>https://docs.aws.amazon.com/codepipeline/latest/userguide/best-practices.html</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/codepipeline/latest/userguide/best-practices.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/best-practices.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -634,21 +658,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/</v>
+        <v>https://docs.aws.amazon.com/general/latest/gr/api-retries.html</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/"&gt;https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/api-retries.html"&gt;https://docs.aws.amazon.com/general/latest/gr/api-retries.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -656,21 +680,21 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-delay-queues.html</v>
+        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-delay-queues.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-delay-queues.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -685,14 +709,14 @@
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html</v>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -707,14 +731,14 @@
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.as.html</v>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environments-updating.html</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.as.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.as.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environments-updating.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environments-updating.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -729,174 +753,190 @@
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonS3/latest/dev/troubleshooting.html</v>
+        <v>https://docs.aws.amazon.com/AmazonElastiCache/latest/red-ug/elasticache-use-cases.html</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/troubleshooting.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/troubleshooting.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonElastiCache/latest/red-ug/elasticache-use-cases.html"&gt;https://docs.aws.amazon.com/AmazonElastiCache/latest/red-ug/elasticache-use-cases.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/get-started-create-function.html</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/get-started-create-function.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/get-started-create-function.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/with-sqs.html</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/with-sqs.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/with-sqs.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/concepts.concepts.design.html</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/concepts.concepts.design.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/concepts.concepts.design.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Query.html</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Query.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Query.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/customize-gateway-responses.html</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/customize-gateway-responses.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/customize-gateway-responses.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/create_deploy_docker.html</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/create_deploy_docker.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/create_deploy_docker.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/eb-cli3.html</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/eb-cli3.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/eb-cli3.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76408DB-E17B-4406-9B39-D4CDC1602771}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1C78FA-8913-4B8D-BF47-D330C5F50A6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Backup" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Backup!$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$A$254</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="526">
   <si>
     <t>"&gt;</t>
   </si>
@@ -87,59 +91,1580 @@
     </r>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-cors.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/firehose/latest/dev/encryption.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/codepipeline/latest/userguide/best-practices.html</t>
+    <t>https://forums.aws.amazon.com/thread.jspa?messageID=604424</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/general/latest/gr/aws-sec-cred-types.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.ec2.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/</t>
   </si>
   <si>
     <t>https://docs.aws.amazon.com/general/latest/gr/api-retries.html</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environments-updating.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonElastiCache/latest/red-ug/elasticache-use-cases.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/get-started-create-function.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/with-sqs.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/concepts.concepts.design.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Query.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/customize-gateway-responses.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/create_deploy_docker.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/eb-cli3.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html</t>
+    <t>https://docs.aws.amazon.com/codepipeline/latest/userguide/actions-retry.html</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/Welcome.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/codedeploy/latest/userguide/application-specification-files.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/STS/latest/APIReference/Welcome.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-streams.html</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://forums.aws.amazon.com/thread.jspa?messageID=604424"&gt;https://forums.aws.amazon.com/thread.jspa?messageID=604424&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/aws-sec-cred-types.html"&gt;https://docs.aws.amazon.com/general/latest/gr/aws-sec-cred-types.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.ec2.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.ec2.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/ec2/"&gt;https://aws.amazon.com/ec2/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/api-retries.html"&gt;https://docs.aws.amazon.com/general/latest/gr/api-retries.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/codepipeline/latest/userguide/actions-retry.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/actions-retry.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/"&gt;https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/Welcome.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/Welcome.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/codedeploy/latest/userguide/application-specification-files.html"&gt;https://docs.aws.amazon.com/codedeploy/latest/userguide/application-specification-files.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/STS/latest/APIReference/Welcome.html"&gt;https://docs.aws.amazon.com/STS/latest/APIReference/Welcome.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-streams.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-streams.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/codedeploy/latest/userguide/reference-appspec-file-structure-hooks.html#reference-appspec-file-structure-hooks-run-order"&gt;https://docs.aws.amazon.com/codedeploy/latest/userguide/reference-appspec-file-structure-hooks.html#reference-appspec-file-structure-hooks-run-order&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/monitoring-functions.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/monitoring-functions.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/best-practices.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/best-practices.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/blogs/database/choosing-the-right-dynamodb-partition-key/"&gt;https://aws.amazon.com/blogs/database/choosing-the-right-dynamodb-partition-key/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/serverless-deploy-wt.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/serverless-deploy-wt.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_temp_request.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_temp_request.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/ecs/faqs/"&gt;https://aws.amazon.com/ecs/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonECS/latest/developerguide/task-iam-roles.html"&gt;https://docs.aws.amazon.com/AmazonECS/latest/developerguide/task-iam-roles.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/access_policies_testing-policies.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/access_policies_testing-policies.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/codepipeline/latest/userguide/pipelines-create-cross-account.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/pipelines-create-cross-account.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/codestar/features/"&gt;https://aws.amazon.com/codestar/features/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/"&gt;https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/lambda-traffic-shifting-using-aliases.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/lambda-traffic-shifting-using-aliases.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/iam-roles-for-amazon-ec2.html"&gt;https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/iam-roles-for-amazon-ec2.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-cors.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-cors.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/firehose/latest/dev/encryption.html"&gt;https://docs.aws.amazon.com/firehose/latest/dev/encryption.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/codepipeline/latest/userguide/best-practices.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/best-practices.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environments-updating.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environments-updating.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonElastiCache/latest/red-ug/elasticache-use-cases.html"&gt;https://docs.aws.amazon.com/AmazonElastiCache/latest/red-ug/elasticache-use-cases.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/get-started-create-function.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/get-started-create-function.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/with-sqs.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/with-sqs.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/concepts.concepts.design.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/concepts.concepts.design.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Query.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Query.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/customize-gateway-responses.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/customize-gateway-responses.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/create_deploy_docker.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/create_deploy_docker.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/eb-cli3.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/eb-cli3.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-attributes.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-attributes.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/"&gt;https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-delay-queues.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-delay-queues.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.as.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.as.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/troubleshooting.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/troubleshooting.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/dp-concepts-datanodes.html"&gt;https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/dp-concepts-datanodes.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/UsingWithRDS.SSL.html"&gt;https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/UsingWithRDS.SSL.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html"&gt;https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/sns/latest/dg/message-filtering.html"&gt;https://docs.aws.amazon.com/sns/latest/dg/message-filtering.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html"&gt;https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/Concepts.MultiAZ.html#Concepts.MultiAZ.Failover"&gt;http://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/Concepts.MultiAZ.html#Concepts.MultiAZ.Failover&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_iam-limits.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_iam-limits.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://console.aws.amazon.com/support/home#/case/create?issueType=service-limit-increase&amp;limitType=service-code-iam-groups-and-users"&gt;https://console.aws.amazon.com/support/home#/case/create?issueType=service-limit-increase&amp;limitType=service-code-iam-groups-and-users&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/UsingEncryption.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/UsingEncryption.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://d0.awsstatic.com/whitepapers/Storage/AWS%20Storage%20Services%20Whitepaper-v9.pdf"&gt;https://d0.awsstatic.com/whitepapers/Storage/AWS%20Storage%20Services%20Whitepaper-v9.pdf&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/sdk-for-javascript/v2/developer-guide/config-web-identity-examples.html"&gt;http://docs.aws.amazon.com/sdk-for-javascript/v2/developer-guide/config-web-identity-examples.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/elasticbeanstalk/faqs/"&gt;https://aws.amazon.com/elasticbeanstalk/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSEncryption.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSEncryption.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSEncryption.html#EBSEncryption_supported_instances"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSEncryption.html#EBSEncryption_supported_instances&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/dynamodb/dax/"&gt;https://aws.amazon.com/dynamodb/dax/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/caching/"&gt;https://aws.amazon.com/caching/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/dynamodb/"&gt;https://aws.amazon.com/dynamodb/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKey.html"&gt;https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKey.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_use_switch-role-api.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_use_switch-role-api.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.deploy-existing-version.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.deploy-existing-version.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/current-supported-versions.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/current-supported-versions.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html#function-code"&gt;https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html#function-code&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html#sqs-inflight-messages"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html#sqs-inflight-messages&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt"&gt;http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-deadletter"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-deadletter&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.environments.html"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.environments.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/env_variables.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/env_variables.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;http://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/lcome.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/lcome.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/sns/latest/gsg/CreateTopic.html"&gt;http://docs.aws.amazon.com/sns/latest/gsg/CreateTopic.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-create-queue.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-create-queue.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-updating-stacks-changesets.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-updating-stacks-changesets.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-getting-started.html"&gt;http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-getting-started.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/AmazonEBS.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/AmazonEBS.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSVolumes.html#EBSFeatures"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSVolumes.html#EBSFeatures&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-cli-package.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-cli-package.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/codebuild/faqs/"&gt;https://aws.amazon.com/codebuild/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AWSSimpleQueueService/2009-02-01/SQSDeveloperGuide/index.html?IntroductionArticle.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/2009-02-01/SQSDeveloperGuide/index.html?IntroductionArticle.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/opsworks/latest/userguide/troubleshoot-debug.html"&gt;https://docs.aws.amazon.com/opsworks/latest/userguide/troubleshoot-debug.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/amazonswf/latest/developerguide/swf-dg-develop-activity.html"&gt;http://docs.aws.amazon.com/amazonswf/latest/developerguide/swf-dg-develop-activity.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-daemon"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-daemon&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/with-userapp-walkthrough-custom-events-create-iam-role.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/with-userapp-walkthrough-custom-events-create-iam-role.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/using-regions-availability-zones.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/using-regions-availability-zones.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/CopyingAMIs.html"&gt;https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/CopyingAMIs.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/"&gt;https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/cli/latest/reference/ec2/import-key-pair.html"&gt;http://docs.aws.amazon.com/cli/latest/reference/ec2/import-key-pair.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/sqs/faqs/"&gt;https://aws.amazon.com/sqs/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/FIFO-queues.html#FIFO-queues-understanding-logic"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/FIFO-queues.html#FIFO-queues-understanding-logic&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://d0.awsstatic.com/whitepapers/aws-security-whitepaper.pdf"&gt;https://d0.awsstatic.com/whitepapers/aws-security-whitepaper.pdf&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.API.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.API.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/serverless-application-model/latest/developerguide/serverless-deploying.html"&gt;https://docs.aws.amazon.com/serverless-application-model/latest/developerguide/serverless-deploying.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/"&gt;https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/rds/details/read-replicas/"&gt;https://aws.amazon.com/rds/details/read-replicas/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/managing-security.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/managing-security.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/codedeploy/latest/userguide/deployments.html"&gt;https://docs.aws.amazon.com/codedeploy/latest/userguide/deployments.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/optimizing-performance.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/optimizing-performance.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/mpuoverview.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/mpuoverview.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/articles/1233/"&gt;https://aws.amazon.com/articles/1233/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.CoreComponents.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.CoreComponents.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/ec2/faqs/#Billing"&gt;https://aws.amazon.com/ec2/faqs/#Billing&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/concepts.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/concepts.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/getting-started.html#getting-started-build-log"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/getting-started.html#getting-started-build-log&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/streams/latest/dev/what-is-sse.html"&gt;https://docs.aws.amazon.com/streams/latest/dev/what-is-sse.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/elasticloadbalancing/latest/userguide/how-elastic-load-balancing-works.html"&gt;http://docs.aws.amazon.com/elasticloadbalancing/latest/userguide/how-elastic-load-balancing-works.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/Stop_Start.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/Stop_Start.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html"&gt;https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-segments"&gt;https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-segments&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-daemon"&gt;https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-daemon&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html"&gt;http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/swf/faqs/"&gt;https://aws.amazon.com/swf/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html"&gt;https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html"&gt;https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/models-mappings.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/models-mappings.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_ConnectToInstance.html"&gt;https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_ConnectToInstance.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/identity-pools.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/identity-pools.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/CloudWatch-Agent-common-scenarios.html#CloudWatch-Agent-aggregating-metrics"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/CloudWatch-Agent-common-scenarios.html#CloudWatch-Agent-aggregating-metrics&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/what-is-datapipeline.html"&gt;https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/what-is-datapipeline.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/Route53/latest/DeveloperGuide/dns-failover.html"&gt;https://docs.aws.amazon.com/Route53/latest/DeveloperGuide/dns-failover.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/lambda-x-ray.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/lambda-x-ray.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/monitoring-functions-access-metrics.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/monitoring-functions-access-metrics.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/RequestAndResponseBehaviorS3Origin.html"&gt;https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/RequestAndResponseBehaviorS3Origin.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/conditions-section-structure.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/conditions-section-structure.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-viewers-to-cloudfront.html"&gt;https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-viewers-to-cloudfront.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-cloudfront-to-custom-origin.html"&gt;https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-cloudfront-to-custom-origin.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticloadbalancing/latest/application/load-balancer-troubleshooting.html"&gt;https://docs.aws.amazon.com/elasticloadbalancing/latest/application/load-balancer-troubleshooting.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/DAX.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/DAX.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKeyWithoutPlaintext.html"&gt;https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKeyWithoutPlaintext.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/codedeploy/latest/userguide/instances.html"&gt;https://docs.aws.amazon.com/codedeploy/latest/userguide/instances.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy"&gt;https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/cloudtrail-integration.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/cloudtrail-integration.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/what-is-cfnstacksets.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/what-is-cfnstacksets.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/automating-deployment.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/automating-deployment.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Programming.Errors.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Programming.Errors.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://console.aws.amazon.com/iam/"&gt;https://console.aws.amazon.com/iam/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/best-practices.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/best-practices.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/specifying-conditions.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/specifying-conditions.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/blogs/developer/rate-limited-scans-in-amazon-dynamodb/"&gt;https://aws.amazon.com/blogs/developer/rate-limited-scans-in-amazon-dynamodb/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-query-scan.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-query-scan.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonElastiCache/latest/mem-ug/Strategies.html"&gt;https://docs.aws.amazon.com/AmazonElastiCache/latest/mem-ug/Strategies.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/premiumsupport/knowledge-center/s3-bucket-performance-improve/"&gt;https://aws.amazon.com/premiumsupport/knowledge-center/s3-bucket-performance-improve/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/Install-CloudWatch-Agent.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/Install-CloudWatch-Agent.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/codestar/latest/userguide/welcome.html"&gt;https://docs.aws.amazon.com/codestar/latest/userguide/welcome.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/ecs/faqs"&gt;https://aws.amazon.com/ecs/faqs&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/run-build.html#run-build-cli"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/run-build.html#run-build-cli&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_concepts.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_concepts.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/stage-variables.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/stage-variables.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html#environments-cfg-rollingdeployments-method"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html#environments-cfg-rollingdeployments-method&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environmentmgmt-updates-immutable.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environmentmgmt-updates-immutable.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/sharingamis-explicit.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/sharingamis-explicit.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/vpc/faqs/"&gt;https://aws.amazon.com/vpc/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/sns/latest/api/API_Publish.html"&gt;https://docs.aws.amazon.com/sns/latest/api/API_Publish.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/sns/latest/dg/json-formats.htm"&gt;http://docs.aws.amazon.com/sns/latest/dg/json-formats.htm&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/cloudformation/faqs/"&gt;https://aws.amazon.com/cloudformation/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ReadWriteCapacityMode.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ReadWriteCapacityMode.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/Welcome.html"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/Welcome.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/s3/faqs/"&gt;https://aws.amazon.com/s3/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/sns/latest/dg/json-formats.html"&gt;http://docs.aws.amazon.com/sns/latest/dg/json-formats.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/WorkingWithItems.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/WorkingWithItems.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/NotificationHowTo.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/NotificationHowTo.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/format-version-structure.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/format-version-structure.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/dynamodb/faqs/"&gt;https://aws.amazon.com/dynamodb/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/sqs/faqs/ "&gt;https://aws.amazon.com/sqs/faqs/ &lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-custommessage.html"&gt;http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-custommessage.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/API/RESTObjectOps.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/API/RESTObjectOps.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/API/RESTObjectGET.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/API/RESTObjectGET.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/sns/faqs/"&gt;https://aws.amazon.com/sns/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/sns/latest/dg/SendMessageToHttp.html"&gt;http://docs.aws.amazon.com/sns/latest/dg/SendMessageToHttp.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStacks.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStacks.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ec2-instance-metadata.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ec2-instance-metadata.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/sns/latest/api/API_CreatePlatformEndpoint.html"&gt;http://docs.aws.amazon.com/sns/latest/api/API_CreatePlatformEndpoint.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-secondary-indexes"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-secondary-indexes&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-register.html"&gt;http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-register.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/quickref-s3.html#scenario-s3-bucket-websiteProperty"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/quickref-s3.html#scenario-s3-bucket-websiteProperty&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/acl-overview.html#canned-acl"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/acl-overview.html#canned-acl&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/APIReference/API_Query.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/APIReference/API_Query.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_DescribeImages.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_DescribeImages.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/sns/faqs/ "&gt;https://aws.amazon.com/sns/faqs/ &lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/sns/latest/dg/SNSMessageAttributes.html"&gt;http://docs.aws.amazon.com/sns/latest/dg/SNSMessageAttributes.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/parameters-section-structure.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/parameters-section-structure.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/WorkingWithTables.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/WorkingWithTables.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://aws.amazon.com/swf/faqs/ "&gt;https://aws.amazon.com/swf/faqs/ &lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/general/latest/gr/aws_service_limits.html"&gt;http://docs.aws.amazon.com/general/latest/gr/aws_service_limits.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/awscloudtrail/latest/userguide/cloudtrail-s3-bucket-naming-requirements.html"&gt;http://docs.aws.amazon.com/awscloudtrail/latest/userguide/cloudtrail-s3-bucket-naming-requirements.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-register.html "&gt;http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-register.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/TroubleshootingInstancesConnecting.html#d0e132832"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/TroubleshootingInstancesConnecting.html#d0e132832&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-properties-ec2-instance.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-properties-ec2-instance.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/WebsiteHosting.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/WebsiteHosting.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html#ErrorCodeList"&gt;https://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html#ErrorCodeList&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/vpc.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/vpc.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://aws.amazon.com/articles/1636185810492479"&gt;http://aws.amazon.com/articles/1636185810492479&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/access-policy-language-overview.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/access-policy-language-overview.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/custom-platforms.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/custom-platforms.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environment-configuration-methods-before.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environment-configuration-methods-before.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-devicetoken.html"&gt;https://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-devicetoken.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/parameters-section-structure.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/parameters-section-structure.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/SSEUsingRESTAPI.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/SSEUsingRESTAPI.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-integrate-with-cognito.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-integrate-with-cognito.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-use-lambda-authorizer.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-use-lambda-authorizer.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>&lt;a href="articles/1636185810492479"&gt;http://aws.amazon.com/articles/1636185810492479&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/APIReference/API_Query.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/APIReference/API_Query.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/HowItWorks.CoreComponents.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.CoreComponents.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/Limits.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/SecondaryIndexes.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/WorkingWithItems.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/WorkingWithItems.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/WorkingWithTables.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/WorkingWithTables.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonRDS/latest/UserGuide/Concepts.MultiAZ.html#Concepts.MultiAZ.Failover"&gt;http://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/Concepts.MultiAZ.html#Concepts.MultiAZ.Failover&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/API/ErrorResponses.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/API/RESTObjectGET.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/API/RESTObjectGET.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/acl-overview.html#canned-acl"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/acl-overview.html#canned-acl&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/mpuoverview.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/mpuoverview.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/NotificationHowTo.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/NotificationHowTo.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/ObjectVersioning.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/ServerLogs.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/UsingEncryption.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/UsingEncryption.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/WebsiteHosting.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/WebsiteHosting.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazonswf/latest/developerguide/swf-dg-develop-activity.html"&gt;http://docs.aws.amazon.com/amazonswf/latest/developerguide/swf-dg-develop-activity.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="autoscaling/latest/userguide/as-manual-scaling.html"&gt;http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSCloudFormation/latest/APIReference/API_ListStacks.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStacks.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSCloudFormation/latest/UserGuide/aws-properties-ec2-instance.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-properties-ec2-instance.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSCloudFormation/latest/UserGuide/format-version-structure.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/format-version-structure.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSCloudFormation/latest/UserGuide/parameters-section-structure.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/parameters-section-structure.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="awscloudtrail/latest/userguide/cloudtrail-s3-bucket-naming-requirements.html"&gt;http://docs.aws.amazon.com/awscloudtrail/latest/userguide/cloudtrail-s3-bucket-naming-requirements.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSEC2/latest/APIReference/API_DescribeImages.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_DescribeImages.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSEC2/latest/UserGuide/AmazonEBS.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/AmazonEBS.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSEC2/latest/UserGuide/ComponentsAMIs.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSEC2/latest/UserGuide/EBSEncryption.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSEncryption.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSEC2/latest/UserGuide/EBSEncryption.html#EBSEncryption_supported_instances"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSEncryption.html#EBSEncryption_supported_instances&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSEC2/latest/UserGuide/EBSSnapshots.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSEC2/latest/UserGuide/EBSVolumes.html#EBSFeatures"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSVolumes.html#EBSFeatures&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSEC2/latest/UserGuide/ec2-instance-metadata.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ec2-instance-metadata.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSEC2/latest/UserGuide/sharingamis-explicit.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/sharingamis-explicit.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSEC2/latest/UserGuide/Stop_Start.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/Stop_Start.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSEC2/latest/UserGuide/TroubleshootingInstancesConnecting.html#d0e132832"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/TroubleshootingInstancesConnecting.html#d0e132832&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSEC2/latest/UserGuide/using-regions-availability-zones.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/using-regions-availability-zones.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSSimpleQueueService/latest/SQSDeveloperGuide/FIFO-queues.html#FIFO-queues-understanding-logic"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/FIFO-queues.html#FIFO-queues-understanding-logic&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-create-queue.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-create-queue.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html#sqs-inflight-messages"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html#sqs-inflight-messages&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/Welcome.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="cli/latest/reference/ec2/import-key-pair.html"&gt;http://docs.aws.amazon.com/cli/latest/reference/ec2/import-key-pair.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/using-features.CNAMESwap.html"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/using-features.environments.html"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.environments.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-daemon"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-daemon&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-deadletter"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features-managing-env-tiers.html#worker-deadletter&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/Welcome.html"&gt;http://docs.aws.amazon.com/elasticbeanstalk/latest/dg/Welcome.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticloadbalancing/latest/classic/elb-getting-started.html"&gt;http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-getting-started.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticloadbalancing/latest/userguide/how-elastic-load-balancing-works.html"&gt;http://docs.aws.amazon.com/elasticloadbalancing/latest/userguide/how-elastic-load-balancing-works.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="general/latest/gr/aws_service_limits.html"&gt;http://docs.aws.amazon.com/general/latest/gr/aws_service_limits.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="IAM/latest/UserGuide/id_roles.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="IAM/latest/UserGuide/id_roles_providers.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="IAM/latest/UserGuide/id_roles_providers_oidc.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="IAM/latest/UserGuide/reference_iam-limits.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_iam-limits.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="kms/latest/developerguide/services-ebs.html#ebs-encrypt"&gt;http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/limits.html"&gt;http://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sdk-for-javascript/v2/developer-guide/config-web-identity-examples.html"&gt;http://docs.aws.amazon.com/sdk-for-javascript/v2/developer-guide/config-web-identity-examples.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sns/latest/api/API_CreatePlatformEndpoint.html"&gt;http://docs.aws.amazon.com/sns/latest/api/API_CreatePlatformEndpoint.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sns/latest/dg/json-formats.htm"&gt;http://docs.aws.amazon.com/sns/latest/dg/json-formats.htm&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sns/latest/dg/json-formats.html"&gt;http://docs.aws.amazon.com/sns/latest/dg/json-formats.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sns/latest/dg/mobile-push-send-custommessage.html"&gt;http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-custommessage.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sns/latest/dg/mobile-push-send-register.html "&gt;http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-register.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sns/latest/dg/mobile-push-send-register.html"&gt;http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-register.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sns/latest/dg/SendMessageToHttp.html"&gt;http://docs.aws.amazon.com/sns/latest/dg/SendMessageToHttp.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sns/latest/dg/SNSMessageAttributes.html"&gt;http://docs.aws.amazon.com/sns/latest/dg/SNSMessageAttributes.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sns/latest/gsg/CreateTopic.html"&gt;http://docs.aws.amazon.com/sns/latest/gsg/CreateTopic.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy"&gt;https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="ec2/faqs/#Billing"&gt;https://aws.amazon.com/ec2/faqs/#Billing&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="ecs/faqs"&gt;https://aws.amazon.com/ecs/faqs&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sns/faqs/ "&gt;https://aws.amazon.com/sns/faqs/ &lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sqs/faqs/ "&gt;https://aws.amazon.com/sqs/faqs/ &lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="swf/faqs/ "&gt;https://aws.amazon.com/swf/faqs/ &lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms"&gt;https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance"&gt;https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="articles/1233"&gt;https://aws.amazon.com/articles/1233/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair"&gt;https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda"&gt;https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="blogs/database/choosing-the-right-dynamodb-partition-key"&gt;https://aws.amazon.com/blogs/database/choosing-the-right-dynamodb-partition-key/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="blogs/developer/rate-limited-scans-in-amazon-dynamodb"&gt;https://aws.amazon.com/blogs/developer/rate-limited-scans-in-amazon-dynamodb/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy"&gt;https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="caching"&gt;https://aws.amazon.com/caching/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="cloudformation/faqs"&gt;https://aws.amazon.com/cloudformation/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="codebuild/faqs"&gt;https://aws.amazon.com/codebuild/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="codestar/features"&gt;https://aws.amazon.com/codestar/features/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="dynamodb"&gt;https://aws.amazon.com/dynamodb/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="dynamodb/dax"&gt;https://aws.amazon.com/dynamodb/dax/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="dynamodb/faqs"&gt;https://aws.amazon.com/dynamodb/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="ec2"&gt;https://aws.amazon.com/ec2/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="ecs/faqs"&gt;https://aws.amazon.com/ecs/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/faqs"&gt;https://aws.amazon.com/elasticbeanstalk/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="premiumsupport/knowledge-center/s3-bucket-performance-improve"&gt;https://aws.amazon.com/premiumsupport/knowledge-center/s3-bucket-performance-improve/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="rds/details/read-replicas"&gt;https://aws.amazon.com/rds/details/read-replicas/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="s3/faqs"&gt;https://aws.amazon.com/s3/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sns/faqs"&gt;https://aws.amazon.com/sns/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sqs/faqs"&gt;https://aws.amazon.com/sqs/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="swf/faqs"&gt;https://aws.amazon.com/swf/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="vpc/faqs"&gt;https://aws.amazon.com/vpc/faqs/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="iam"&gt;https://console.aws.amazon.com/iam/&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="support/home#/case/create?issueType=service-limit-increase&amp;limitType=service-code-iam-groups-and-users"&gt;https://console.aws.amazon.com/support/home#/case/create?issueType=service-limit-increase&amp;limitType=service-code-iam-groups-and-users&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="whitepapers/aws-security-whitepaper.pdf"&gt;https://d0.awsstatic.com/whitepapers/aws-security-whitepaper.pdf&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="whitepapers/Storage/AWS%20Storage%20Services%20Whitepaper-v9.pdf"&gt;https://d0.awsstatic.com/whitepapers/Storage/AWS%20Storage%20Services%20Whitepaper-v9.pdf&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonCloudFront/latest/DeveloperGuide/RequestAndResponseBehaviorS3Origin.html"&gt;https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/RequestAndResponseBehaviorS3Origin.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonCloudFront/latest/DeveloperGuide/using-https-cloudfront-to-custom-origin.html"&gt;https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-cloudfront-to-custom-origin.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonCloudFront/latest/DeveloperGuide/using-https-viewers-to-cloudfront.html"&gt;https://docs.aws.amazon.com/AmazonCloudFront/latest/DeveloperGuide/using-https-viewers-to-cloudfront.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonCloudWatch/latest/events/RunLambdaSchedule.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonCloudWatch/latest/monitoring/cloudwatch_concepts.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_concepts.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonCloudWatch/latest/monitoring/CloudWatch-Agent-common-scenarios.html#CloudWatch-Agent-aggregating-metrics"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/CloudWatch-Agent-common-scenarios.html#CloudWatch-Agent-aggregating-metrics&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonCloudWatch/latest/monitoring/Install-CloudWatch-Agent.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/Install-CloudWatch-Agent.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/best-practices.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/best-practices.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/bp-indexes-general.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-indexes-general.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/bp-query-scan.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-query-scan.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/DAX.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/DAX.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Expressions.ProjectionExpressions.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/HowItWorks.API.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.API.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/HowItWorks.ReadWriteCapacityMode.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ReadWriteCapacityMode.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/Limits.html#limits-secondary-indexes"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-secondary-indexes&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/Programming.Errors.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Programming.Errors.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/Query.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Query.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/SecondaryIndexes.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="amazondynamodb/latest/developerguide/specifying-conditions.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/specifying-conditions.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonECS/latest/developerguide/task-iam-roles.html"&gt;https://docs.aws.amazon.com/AmazonECS/latest/developerguide/task-iam-roles.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonElastiCache/latest/mem-ug/Strategies.html"&gt;https://docs.aws.amazon.com/AmazonElastiCache/latest/mem-ug/Strategies.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonElastiCache/latest/red-ug/elasticache-use-cases.html"&gt;https://docs.aws.amazon.com/AmazonElastiCache/latest/red-ug/elasticache-use-cases.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonRDS/latest/UserGuide/USER_ConnectToInstance.html"&gt;https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_ConnectToInstance.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonRDS/latest/UserGuide/UsingWithRDS.SSL.html"&gt;https://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/UsingWithRDS.SSL.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/API/ErrorResponses.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/API/ErrorResponses.html#ErrorCodeList"&gt;https://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html#ErrorCodeList&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/API/RESTObjectOps.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/API/RESTObjectOps.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/access-policy-language-overview.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/access-policy-language-overview.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/optimizing-performance.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/optimizing-performance.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/request-rate-perf-considerations.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/request-rate-perf-considerations.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/serv-side-encryption.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/SSEUsingRESTAPI.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/SSEUsingRESTAPI.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AmazonS3/latest/dev/troubleshooting.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/troubleshooting.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="apigateway/latest/developerguide/apigateway-control-access-to-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="apigateway/latest/developerguide/apigateway-integrate-with-cognito.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-integrate-with-cognito.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="apigateway/latest/developerguide/apigateway-use-lambda-authorizer.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-use-lambda-authorizer.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="apigateway/latest/developerguide/customize-gateway-responses.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/customize-gateway-responses.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="apigateway/latest/developerguide/how-to-cors.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-cors.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="apigateway/latest/developerguide/how-to-deploy-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="apigateway/latest/developerguide/models-mappings.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/models-mappings.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="apigateway/latest/developerguide/stage-variables.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/stage-variables.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="autoscaling/ec2/userguide/us-iam-role.html"&gt;https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSCloudFormation/latest/UserGuide/best-practices.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/best-practices.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSCloudFormation/latest/UserGuide/conditions-section-structure.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/conditions-section-structure.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSCloudFormation/latest/UserGuide/parameters-section-structure.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/parameters-section-structure.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSCloudFormation/latest/UserGuide/quickref-s3.html#scenario-s3-bucket-websiteProperty"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/quickref-s3.html#scenario-s3-bucket-websiteProperty&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSCloudFormation/latest/UserGuide/using-cfn-cli-package.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-cli-package.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSCloudFormation/latest/UserGuide/using-cfn-updating-stacks-changesets.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-updating-stacks-changesets.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSCloudFormation/latest/UserGuide/Welcome.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/Welcome.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSCloudFormation/latest/UserGuide/what-is-cfnstacksets.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/what-is-cfnstacksets.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSEC2/latest/UserGuide/CopyingAMIs.html"&gt;https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/CopyingAMIs.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSEC2/latest/UserGuide/iam-roles-for-amazon-ec2.html"&gt;https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/iam-roles-for-amazon-ec2.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSSimpleQueueService/2009-02-01/SQSDeveloperGuide/index.html?IntroductionArticle.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/2009-02-01/SQSDeveloperGuide/index.html?IntroductionArticle.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-delay-queues.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-delay-queues.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-attributes.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-attributes.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-visibility-timeout.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="cli/latest/reference/sts/decode-authorization-message.html"&gt;https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="codebuild/latest/userguide/concepts.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/concepts.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="codebuild/latest/userguide/getting-started.html#getting-started-build-log"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/getting-started.html#getting-started-build-log&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="codebuild/latest/userguide/run-build.html#run-build-cli"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/run-build.html#run-build-cli&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="codebuild/latest/userguide/vpc-support.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="codedeploy/latest/userguide/application-specification-files.html"&gt;https://docs.aws.amazon.com/codedeploy/latest/userguide/application-specification-files.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="codedeploy/latest/userguide/deployments.html"&gt;https://docs.aws.amazon.com/codedeploy/latest/userguide/deployments.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="codedeploy/latest/userguide/instances.html"&gt;https://docs.aws.amazon.com/codedeploy/latest/userguide/instances.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="codedeploy/latest/userguide/reference-appspec-file-structure-hooks.html#reference-appspec-file-structure-hooks-run-order"&gt;https://docs.aws.amazon.com/codedeploy/latest/userguide/reference-appspec-file-structure-hooks.html#reference-appspec-file-structure-hooks-run-order&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="codepipeline/latest/userguide/actions-retry.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/actions-retry.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="codepipeline/latest/userguide/best-practices.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/best-practices.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="codepipeline/latest/userguide/pipelines-create-cross-account.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/pipelines-create-cross-account.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="codepipeline/latest/userguide/S3-artifact-encryption.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="codestar/latest/userguide/welcome.html"&gt;https://docs.aws.amazon.com/codestar/latest/userguide/welcome.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="cognito/latest/developerguide/cognito-streams.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-streams.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="cognito/latest/developerguide/cognito-user-identity-pools.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="cognito/latest/developerguide/getting-started-with-cognito-sync.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="cognito/latest/developerguide/identity-pools.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/identity-pools.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="cognito/latest/developerguide/managing-security.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/managing-security.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="datapipeline/latest/DeveloperGuide/dp-concepts-datanodes.html"&gt;https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/dp-concepts-datanodes.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="datapipeline/latest/DeveloperGuide/what-is-datapipeline.html"&gt;https://docs.aws.amazon.com/datapipeline/latest/DeveloperGuide/what-is-datapipeline.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/applications-sourcebundle.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/applications-versions.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/concepts.concepts.design.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/concepts.concepts.design.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/create_deploy_docker.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/create_deploy_docker.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/custom-platforms.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/custom-platforms.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/eb-cli3.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/eb-cli3.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/environment-configuration-methods-before.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environment-configuration-methods-before.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/environmentmgmt-updates-immutable.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environmentmgmt-updates-immutable.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/environments-updating.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environments-updating.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/using-features.CNAMESwap.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/using-features.deploy-existing-version.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.deploy-existing-version.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/using-features.managing.as.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.as.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/using-features.managing.db.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/using-features.managing.ec2.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.ec2.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/using-features.platform.upgrade.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html#environments-cfg-rollingdeployments-method"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html#environments-cfg-rollingdeployments-method&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="elasticloadbalancing/latest/application/load-balancer-troubleshooting.html"&gt;https://docs.aws.amazon.com/elasticloadbalancing/latest/application/load-balancer-troubleshooting.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="firehose/latest/dev/encryption.html"&gt;https://docs.aws.amazon.com/firehose/latest/dev/encryption.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="general/latest/gr/api-retries.html"&gt;https://docs.aws.amazon.com/general/latest/gr/api-retries.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="general/latest/gr/aws-sec-cred-types.html"&gt;https://docs.aws.amazon.com/general/latest/gr/aws-sec-cred-types.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="general/latest/gr/signing_aws_api_requests.html"&gt;https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="IAM/latest/UserGuide/access_policies_testing-policies.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/access_policies_testing-policies.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="IAM/latest/UserGuide/cloudtrail-integration.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/cloudtrail-integration.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="IAM/latest/UserGuide/id_credentials_temp_request.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_temp_request.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="IAM/latest/UserGuide/id_roles_providers_oidc.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="IAM/latest/UserGuide/id_roles_use_switch-role-api.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_use_switch-role-api.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="IAM/latest/UserGuide/reference_policies_variables.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="kms/latest/APIReference/API_GenerateDataKey.html"&gt;https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKey.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="kms/latest/APIReference/API_GenerateDataKeyWithoutPlaintext.html"&gt;https://docs.aws.amazon.com/kms/latest/APIReference/API_GenerateDataKeyWithoutPlaintext.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/automating-deployment.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/automating-deployment.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/best-practices.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/best-practices.html#function-code"&gt;https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html#function-code&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/current-supported-versions.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/current-supported-versions.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/enabling-x-ray.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/env_variables.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/env_variables.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/get-started-create-function.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/get-started-create-function.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/lambda-traffic-shifting-using-aliases.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/lambda-traffic-shifting-using-aliases.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/lambda-x-ray.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/lambda-x-ray.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/lcome.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/lcome.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/limits.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/monitoring-functions.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/monitoring-functions.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/monitoring-functions-access-metrics.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/monitoring-functions-access-metrics.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/serverless-deploy-wt.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/serverless-deploy-wt.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/vpc.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/vpc.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/with-sqs.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/with-sqs.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="lambda/latest/dg/with-userapp-walkthrough-custom-events-create-iam-role.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/with-userapp-walkthrough-custom-events-create-iam-role.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="opsworks/latest/userguide/troubleshoot-debug.html"&gt;https://docs.aws.amazon.com/opsworks/latest/userguide/troubleshoot-debug.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="Route53/latest/DeveloperGuide/dns-failover.html"&gt;https://docs.aws.amazon.com/Route53/latest/DeveloperGuide/dns-failover.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="serverless-application-model/latest/developerguide/serverless-deploying.html"&gt;https://docs.aws.amazon.com/serverless-application-model/latest/developerguide/serverless-deploying.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sns/latest/api/API_Publish.html"&gt;https://docs.aws.amazon.com/sns/latest/api/API_Publish.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sns/latest/dg/message-filtering.html"&gt;https://docs.aws.amazon.com/sns/latest/dg/message-filtering.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="sns/latest/dg/mobile-push-send-devicetoken.html"&gt;https://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-devicetoken.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="streams/latest/dev/amazon-kinesis-streams.html"&gt;https://docs.aws.amazon.com/streams/latest/dev/amazon-kinesis-streams.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="streams/latest/dev/what-is-sse.html"&gt;https://docs.aws.amazon.com/streams/latest/dev/what-is-sse.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="STS/latest/APIReference/Welcome.html"&gt;https://docs.aws.amazon.com/STS/latest/APIReference/Welcome.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="xray/latest/devguide/xray-api-sendingdata.html"&gt;https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="xray/latest/devguide/xray-api-sendingdata.html#xray-api-daemon"&gt;https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-daemon&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="xray/latest/devguide/xray-api-sendingdata.html#xray-api-segments"&gt;https://docs.aws.amazon.com/xray/latest/devguide/xray-api-sendingdata.html#xray-api-segments&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="thread.jspa?messageID=604424"&gt;https://forums.aws.amazon.com/thread.jspa?messageID=604424&lt;/a&gt;&lt;/br&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +1717,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,7 +1747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -229,6 +1762,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -573,7 +2118,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B16"/>
+      <selection activeCell="F1" sqref="F1:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,26 +2132,26 @@
     <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>B1</f>
-        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-cors.html</v>
+        <v>https://forums.aws.amazon.com/thread.jspa?messageID=604424</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-cors.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-cors.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://forums.aws.amazon.com/thread.jspa?messageID=604424"&gt;https://forums.aws.amazon.com/thread.jspa?messageID=604424&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -614,21 +2159,21 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D30" si="0">B2</f>
-        <v>https://docs.aws.amazon.com/firehose/latest/dev/encryption.html</v>
+        <v>https://docs.aws.amazon.com/general/latest/gr/aws-sec-cred-types.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F30" si="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/firehose/latest/dev/encryption.html"&gt;https://docs.aws.amazon.com/firehose/latest/dev/encryption.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/aws-sec-cred-types.html"&gt;https://docs.aws.amazon.com/general/latest/gr/aws-sec-cred-types.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -636,21 +2181,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/codepipeline/latest/userguide/best-practices.html</v>
+        <v>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codepipeline/latest/userguide/best-practices.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/best-practices.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -658,21 +2203,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/general/latest/gr/api-retries.html</v>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.ec2.html</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/api-retries.html"&gt;https://docs.aws.amazon.com/general/latest/gr/api-retries.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.ec2.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.ec2.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -680,21 +2225,21 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</v>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -709,14 +2254,14 @@
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html</v>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/enabling-x-ray.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -731,14 +2276,14 @@
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environments-updating.html</v>
+        <v>https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environments-updating.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/environments-updating.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -753,14 +2298,14 @@
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonElastiCache/latest/red-ug/elasticache-use-cases.html</v>
+        <v>https://aws.amazon.com/ec2/</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonElastiCache/latest/red-ug/elasticache-use-cases.html"&gt;https://docs.aws.amazon.com/AmazonElastiCache/latest/red-ug/elasticache-use-cases.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/ec2/"&gt;https://aws.amazon.com/ec2/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -775,14 +2320,14 @@
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/get-started-create-function.html</v>
+        <v>https://docs.aws.amazon.com/general/latest/gr/api-retries.html</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/get-started-create-function.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/get-started-create-function.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/api-retries.html"&gt;https://docs.aws.amazon.com/general/latest/gr/api-retries.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -797,14 +2342,14 @@
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/with-sqs.html</v>
+        <v>https://docs.aws.amazon.com/codepipeline/latest/userguide/actions-retry.html</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/with-sqs.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/with-sqs.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/codepipeline/latest/userguide/actions-retry.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/actions-retry.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -819,14 +2364,14 @@
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/concepts.concepts.design.html</v>
+        <v>https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/concepts.concepts.design.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/concepts.concepts.design.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/"&gt;https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -841,14 +2386,14 @@
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Query.html</v>
+        <v>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/Welcome.html</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Query.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Query.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/Welcome.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/Welcome.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -863,14 +2408,14 @@
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/customize-gateway-responses.html</v>
+        <v>https://docs.aws.amazon.com/codedeploy/latest/userguide/application-specification-files.html</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/customize-gateway-responses.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/customize-gateway-responses.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/codedeploy/latest/userguide/application-specification-files.html"&gt;https://docs.aws.amazon.com/codedeploy/latest/userguide/application-specification-files.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -885,14 +2430,14 @@
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/create_deploy_docker.html</v>
+        <v>https://docs.aws.amazon.com/STS/latest/APIReference/Welcome.html</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/create_deploy_docker.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/create_deploy_docker.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/STS/latest/APIReference/Welcome.html"&gt;https://docs.aws.amazon.com/STS/latest/APIReference/Welcome.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -907,14 +2452,14 @@
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/eb-cli3.html</v>
+        <v>https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/eb-cli3.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/eb-cli3.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -929,14 +2474,14 @@
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html</v>
+        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-streams.html</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-identity-pools-working-with-aws-lambda-triggers.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-streams.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-streams.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1227,24 +2772,3100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A340"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="178.5546875" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A254" xr:uid="{12C1DCD9-0959-4B17-AB7F-6438EF366E22}">
+    <sortState ref="A2:A254">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4CFB32-420B-49A6-992C-D51ED20F226A}">
+  <dimension ref="A1:A340"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="178.5546875" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A167" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A188" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A211" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A254" xr:uid="{12C1DCD9-0959-4B17-AB7F-6438EF366E22}">
+    <sortState ref="A2:A254">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1C78FA-8913-4B8D-BF47-D330C5F50A6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA03B6-0699-441B-BFDF-84E5EE235370}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="518">
   <si>
     <t>"&gt;</t>
   </si>
@@ -91,54 +91,9 @@
     </r>
   </si>
   <si>
-    <t>https://forums.aws.amazon.com/thread.jspa?messageID=604424</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/general/latest/gr/aws-sec-cred-types.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.ec2.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/general/latest/gr/api-retries.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/codepipeline/latest/userguide/actions-retry.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/Welcome.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/codedeploy/latest/userguide/application-specification-files.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/STS/latest/APIReference/Welcome.html</t>
-  </si>
-  <si>
     <t>https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-streams.html</t>
-  </si>
-  <si>
     <t>&lt;a href="https://forums.aws.amazon.com/thread.jspa?messageID=604424"&gt;https://forums.aws.amazon.com/thread.jspa?messageID=604424&lt;/a&gt;&lt;/br&gt;</t>
   </si>
   <si>
@@ -1658,6 +1613,27 @@
   </si>
   <si>
     <t>&lt;a href="thread.jspa?messageID=604424"&gt;https://forums.aws.amazon.com/thread.jspa?messageID=604424&lt;/a&gt;&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/user-data.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-integrate-with-cognito.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/firehose/latest/dev/encryption.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html</t>
+  </si>
+  <si>
+    <t>http://aws.amazon.com/articles/1636185810492479</t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2094,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F16"/>
+      <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2137,21 +2113,21 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>511</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>B1</f>
-        <v>https://forums.aws.amazon.com/thread.jspa?messageID=604424</v>
+        <v>https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/user-data.html</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>&lt;a href="https://forums.aws.amazon.com/thread.jspa?messageID=604424"&gt;https://forums.aws.amazon.com/thread.jspa?messageID=604424&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/user-data.html"&gt;https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/user-data.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2159,21 +2135,21 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D30" si="0">B2</f>
-        <v>https://docs.aws.amazon.com/general/latest/gr/aws-sec-cred-types.html</v>
+        <v>https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F30" si="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/aws-sec-cred-types.html"&gt;https://docs.aws.amazon.com/general/latest/gr/aws-sec-cred-types.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2181,21 +2157,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>512</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html</v>
+        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-integrate-with-cognito.html</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html"&gt;https://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-long-polling.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-integrate-with-cognito.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-integrate-with-cognito.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2203,21 +2179,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>513</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.ec2.html</v>
+        <v>https://docs.aws.amazon.com/firehose/latest/dev/encryption.html</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.ec2.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.ec2.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/firehose/latest/dev/encryption.html"&gt;https://docs.aws.amazon.com/firehose/latest/dev/encryption.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2225,21 +2201,21 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>514</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html</v>
+        <v>https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.rolling-version-deploy.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2247,21 +2223,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>515</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html</v>
+        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.CNAMESwap.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2269,21 +2245,21 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>516</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html</v>
+        <v>http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/S3-artifact-encryption.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2291,197 +2267,181 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>517</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/ec2/</v>
+        <v>http://aws.amazon.com/articles/1636185810492479</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/ec2/"&gt;https://aws.amazon.com/ec2/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://aws.amazon.com/articles/1636185810492479"&gt;http://aws.amazon.com/articles/1636185810492479&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/general/latest/gr/api-retries.html</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/api-retries.html"&gt;https://docs.aws.amazon.com/general/latest/gr/api-retries.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/codepipeline/latest/userguide/actions-retry.html</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codepipeline/latest/userguide/actions-retry.html"&gt;https://docs.aws.amazon.com/codepipeline/latest/userguide/actions-retry.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/"&gt;https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/Welcome.html</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/Welcome.html"&gt;https://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/Welcome.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/codedeploy/latest/userguide/application-specification-files.html</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codedeploy/latest/userguide/application-specification-files.html"&gt;https://docs.aws.amazon.com/codedeploy/latest/userguide/application-specification-files.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/STS/latest/APIReference/Welcome.html</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/STS/latest/APIReference/Welcome.html"&gt;https://docs.aws.amazon.com/STS/latest/APIReference/Welcome.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-streams.html</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-streams.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-streams.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2786,1272 +2746,1272 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
@@ -4336,1272 +4296,1272 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA03B6-0699-441B-BFDF-84E5EE235370}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60BA106-C18D-4815-82EF-AB3E30BF20A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="528">
   <si>
     <t>"&gt;</t>
   </si>
@@ -91,9 +91,6 @@
     </r>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html</t>
-  </si>
-  <si>
     <t>&lt;a href="https://forums.aws.amazon.com/thread.jspa?messageID=604424"&gt;https://forums.aws.amazon.com/thread.jspa?messageID=604424&lt;/a&gt;&lt;/br&gt;</t>
   </si>
   <si>
@@ -1615,25 +1612,58 @@
     <t>&lt;a href="thread.jspa?messageID=604424"&gt;https://forums.aws.amazon.com/thread.jspa?messageID=604424&lt;/a&gt;&lt;/br&gt;</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/user-data.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-integrate-with-cognito.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/firehose/latest/dev/encryption.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html</t>
-  </si>
-  <si>
-    <t>http://aws.amazon.com/articles/1636185810492479</t>
+    <t>https://aws.amazon.com/swf/faqs/</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-describing-stacks.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://aws.amazon.com/sns/faqs/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStackResources.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://aws.amazon.com/dynamodb/faqs/</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/parameters-section-structure.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-properties-ec2-instance.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-register.html </t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-secondary-indexes</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-getatt.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_DescribeImages.html </t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/cloudformation/faqs/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://docs.aws.amazon.com/AmazonS3/latest/dev/access-policy-language-overview.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://aws.amazon.com/blogs/developer/elasticache-as-an-asp-net-session-store/ </t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html</t>
   </si>
 </sst>
 </file>
@@ -2094,7 +2124,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B8"/>
+      <selection activeCell="F1" sqref="F1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2113,46 +2143,46 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>B1</f>
-        <v>https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/user-data.html</v>
+        <v>https://aws.amazon.com/swf/faqs/</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/user-data.html"&gt;https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/user-data.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/swf/faqs/"&gt;https://aws.amazon.com/swf/faqs/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>511</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D30" si="0">B2</f>
-        <v>https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html</v>
+        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-describing-stacks.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F30" si="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-describing-stacks.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-describing-stacks.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2164,14 +2194,14 @@
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-integrate-with-cognito.html</v>
+        <v xml:space="preserve">http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html </v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-integrate-with-cognito.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-integrate-with-cognito.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html "&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html &lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2186,17 +2216,17 @@
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/firehose/latest/dev/encryption.html</v>
+        <v xml:space="preserve">https://aws.amazon.com/sns/faqs/ </v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/firehose/latest/dev/encryption.html"&gt;https://docs.aws.amazon.com/firehose/latest/dev/encryption.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/sns/faqs/ "&gt;https://aws.amazon.com/sns/faqs/ &lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2208,14 +2238,14 @@
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html</v>
+        <v xml:space="preserve">http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStackResources.html </v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/vpc-support.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStackResources.html "&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStackResources.html &lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2230,17 +2260,17 @@
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html</v>
+        <v xml:space="preserve"> https://aws.amazon.com/dynamodb/faqs/</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href=" https://aws.amazon.com/dynamodb/faqs/"&gt; https://aws.amazon.com/dynamodb/faqs/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2252,17 +2282,17 @@
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html</v>
+        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/parameters-section-structure.html</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/parameters-section-structure.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/parameters-section-structure.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -2274,214 +2304,234 @@
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://aws.amazon.com/articles/1636185810492479</v>
+        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-properties-ec2-instance.html</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://aws.amazon.com/articles/1636185810492479"&gt;http://aws.amazon.com/articles/1636185810492479&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-properties-ec2-instance.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-properties-ec2-instance.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>518</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v xml:space="preserve">http://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html </v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html "&gt;http://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html &lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>519</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v xml:space="preserve">http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-register.html </v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-register.html "&gt;http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-register.html &lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>520</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-secondary-indexes</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-secondary-indexes"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-secondary-indexes&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-getatt.html</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-getatt.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-getatt.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>522</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>523</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v xml:space="preserve">http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_DescribeImages.html </v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_DescribeImages.html "&gt;http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_DescribeImages.html &lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>524</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>https://aws.amazon.com/cloudformation/faqs/</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/cloudformation/faqs/"&gt;https://aws.amazon.com/cloudformation/faqs/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>525</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v xml:space="preserve">http://docs.aws.amazon.com/AmazonS3/latest/dev/access-policy-language-overview.html </v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/access-policy-language-overview.html "&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/access-policy-language-overview.html &lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>526</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v xml:space="preserve">https://aws.amazon.com/blogs/developer/elasticache-as-an-asp-net-session-store/ </v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/blogs/developer/elasticache-as-an-asp-net-session-store/ "&gt;https://aws.amazon.com/blogs/developer/elasticache-as-an-asp-net-session-store/ &lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>527</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2725,8 +2775,26 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C130B6E5-41F4-45EA-9BC1-FAF8CF17C674}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D2CEF5CD-C8A9-4AB4-AE22-B861B3435F22}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{89F6DD1E-DD3C-4E7F-A950-8F382AF52FE6}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{07716F62-E047-43FA-8D5A-59AC08F252F6}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{5786EA90-4CE2-4C60-8A00-BB31F32CEC69}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{934A8B7E-CCE2-432D-9C4D-3C7040ED02ED}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{F0051B84-C21C-42DA-B4B2-5BCA4778D1D1}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{319473A7-71E0-4DA3-9BAE-218051FBFE54}"/>
+    <hyperlink ref="B11" r:id="rId9" location="limits-secondary-indexes" xr:uid="{3FF1379B-D566-4052-9AD6-2DB90EF47A3D}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{2776D543-5584-40CA-B894-43FD3AA54467}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{CD175AB4-DC43-4380-995B-AEDAC2249F81}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{6E182E47-59A3-4363-8B87-17B72A4C9125}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{07ECEBBE-E293-445D-AEE1-BE565EB87C18}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{9E6B17D7-02E4-41A9-A258-BD84DD2BAA89}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{AF73AC59-B48D-465C-ABB0-2EB240F6B167}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{092A8EA0-10AE-4378-81BF-6F1E232546B8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -2746,1272 +2814,1272 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
@@ -4296,1272 +4364,1272 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="36.6" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="189" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60BA106-C18D-4815-82EF-AB3E30BF20A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD710AC6-CCD6-44DB-8984-696E16E34119}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="528">
   <si>
     <t>"&gt;</t>
   </si>
@@ -1615,55 +1615,55 @@
     <t>https://aws.amazon.com/swf/faqs/</t>
   </si>
   <si>
-    <t>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-describing-stacks.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://aws.amazon.com/sns/faqs/ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStackResources.html </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://aws.amazon.com/dynamodb/faqs/</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/parameters-section-structure.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-properties-ec2-instance.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html </t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-register.html </t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-secondary-indexes</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-getatt.html</t>
-  </si>
-  <si>
     <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html</t>
   </si>
   <si>
-    <t xml:space="preserve">http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_DescribeImages.html </t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/cloudformation/faqs/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://docs.aws.amazon.com/AmazonS3/latest/dev/access-policy-language-overview.html </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://aws.amazon.com/blogs/developer/elasticache-as-an-asp-net-session-store/ </t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html</t>
+    <t>https://aws.amazon.com/dynamodb/faqs/</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/sns/faqs/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/tools/</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/VPC_Route_Tables.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStacks.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/general/latest/gr/aws_service_limits.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_BundleInstance.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/sns/latest/dg/SendMessageToHttp.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/s3-access-control.html</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/autoscaling/</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2124,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2143,65 +2143,65 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>B1</f>
-        <v>https://aws.amazon.com/swf/faqs/</v>
+        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>&lt;a href="https://aws.amazon.com/swf/faqs/"&gt;https://aws.amazon.com/swf/faqs/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D30" si="0">B2</f>
-        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-describing-stacks.html</v>
+        <v>https://aws.amazon.com/sns/faqs/</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F30" si="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-describing-stacks.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/using-cfn-describing-stacks.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/sns/faqs/"&gt;https://aws.amazon.com/sns/faqs/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html </v>
+        <v>https://aws.amazon.com/tools/</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html "&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html &lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/tools/"&gt;https://aws.amazon.com/tools/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2209,449 +2209,457 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">https://aws.amazon.com/sns/faqs/ </v>
+        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/sns/faqs/ "&gt;https://aws.amazon.com/sns/faqs/ &lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStackResources.html </v>
+        <v>http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/VPC_Route_Tables.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStackResources.html "&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStackResources.html &lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/VPC_Route_Tables.html"&gt;http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/VPC_Route_Tables.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> https://aws.amazon.com/dynamodb/faqs/</v>
+        <v>http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=" https://aws.amazon.com/dynamodb/faqs/"&gt; https://aws.amazon.com/dynamodb/faqs/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/parameters-section-structure.html</v>
+        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStacks.html</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/parameters-section-structure.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/parameters-section-structure.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStacks.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStacks.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-properties-ec2-instance.html</v>
+        <v>http://docs.aws.amazon.com/general/latest/gr/aws_service_limits.html</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-properties-ec2-instance.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/aws-properties-ec2-instance.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/general/latest/gr/aws_service_limits.html"&gt;http://docs.aws.amazon.com/general/latest/gr/aws_service_limits.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">http://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html </v>
+        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html "&gt;http://docs.aws.amazon.com/AmazonS3/latest/API/ErrorResponses.html &lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-register.html </v>
+        <v>http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_BundleInstance.html</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-register.html "&gt;http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-register.html &lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_BundleInstance.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_BundleInstance.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>520</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-secondary-indexes</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-secondary-indexes"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-secondary-indexes&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-getatt.html</v>
+        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-getatt.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-getatt.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html</v>
+        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_DescribeImages.html </v>
+        <v>https://aws.amazon.com/swf/faqs/</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_DescribeImages.html "&gt;http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_DescribeImages.html &lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/swf/faqs/"&gt;https://aws.amazon.com/swf/faqs/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>524</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/cloudformation/faqs/</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/cloudformation/faqs/"&gt;https://aws.amazon.com/cloudformation/faqs/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">http://docs.aws.amazon.com/AmazonS3/latest/dev/access-policy-language-overview.html </v>
+        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/access-policy-language-overview.html "&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/access-policy-language-overview.html &lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">https://aws.amazon.com/blogs/developer/elasticache-as-an-asp-net-session-store/ </v>
+        <v>http://docs.aws.amazon.com/sns/latest/dg/SendMessageToHttp.html</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/blogs/developer/elasticache-as-an-asp-net-session-store/ "&gt;https://aws.amazon.com/blogs/developer/elasticache-as-an-asp-net-session-store/ &lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/sns/latest/dg/SendMessageToHttp.html"&gt;http://docs.aws.amazon.com/sns/latest/dg/SendMessageToHttp.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html</v>
+        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/s3-access-control.html</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/SecondaryIndexes.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/s3-access-control.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/s3-access-control.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>511</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>510</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>https://aws.amazon.com/swf/faqs/</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/swf/faqs/"&gt;https://aws.amazon.com/swf/faqs/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>512</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>https://aws.amazon.com/dynamodb/faqs/</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/dynamodb/faqs/"&gt;https://aws.amazon.com/dynamodb/faqs/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>521</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5" t="s">
+        <v>526</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>https://aws.amazon.com/autoscaling/</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/autoscaling/"&gt;https://aws.amazon.com/autoscaling/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>527</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2776,25 +2784,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C130B6E5-41F4-45EA-9BC1-FAF8CF17C674}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{D2CEF5CD-C8A9-4AB4-AE22-B861B3435F22}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{89F6DD1E-DD3C-4E7F-A950-8F382AF52FE6}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{07716F62-E047-43FA-8D5A-59AC08F252F6}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{5786EA90-4CE2-4C60-8A00-BB31F32CEC69}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{934A8B7E-CCE2-432D-9C4D-3C7040ED02ED}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{F0051B84-C21C-42DA-B4B2-5BCA4778D1D1}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{319473A7-71E0-4DA3-9BAE-218051FBFE54}"/>
-    <hyperlink ref="B11" r:id="rId9" location="limits-secondary-indexes" xr:uid="{3FF1379B-D566-4052-9AD6-2DB90EF47A3D}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{2776D543-5584-40CA-B894-43FD3AA54467}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{CD175AB4-DC43-4380-995B-AEDAC2249F81}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{6E182E47-59A3-4363-8B87-17B72A4C9125}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{07ECEBBE-E293-445D-AEE1-BE565EB87C18}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{9E6B17D7-02E4-41A9-A258-BD84DD2BAA89}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{AF73AC59-B48D-465C-ABB0-2EB240F6B167}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{092A8EA0-10AE-4378-81BF-6F1E232546B8}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1F30FF9D-70F6-4068-A09E-C5B931EA13D1}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{95E0B7F4-0331-4244-8631-D8AAB3E6BF2B}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{A8861BBB-4195-4F15-8E55-D35ED2195C09}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{FEE314B1-CABD-4078-9F8F-A12DA19F8C72}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{21985A55-4035-40C3-B9B5-44147F75520F}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{973D494F-1C38-4C73-BD0C-BEDAF6621E49}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{AE1578FD-BD8B-4E06-A0D9-85AC1D1AA323}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{6965B6F2-255B-4E34-9BA9-CF987FF8B131}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{5DAFE40E-3F0A-4EE6-971A-10680BD764D6}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{0F36E10F-E75C-4FC3-8BAB-0951235E46B6}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{F0D290DD-7D1C-47F1-B807-ADAA1D212AD8}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{0642E7E4-3CD0-4E6E-B3BB-5896302F1352}"/>
+    <hyperlink ref="B16" r:id="rId13" xr:uid="{66AE58BF-F1AE-45BD-9C4A-4E6EA23155E7}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{EC5EC893-B4F5-4283-9081-156CE687523A}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{FB1FBA5C-9E82-4817-B8B2-864443B597F3}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{BD58DF8A-8E4B-45B6-9FF7-9A36D783824A}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{3D786A1F-EB04-42B4-87AF-619BC36343B0}"/>
+    <hyperlink ref="B21" r:id="rId18" xr:uid="{E8533553-AE48-43BC-AAAD-74CC04158C47}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{1C8BF399-F064-4648-8CEB-63FBFEE36C2E}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{37BD0D7B-3DA0-42BD-A867-3ECCE5FF54C0}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{856002B5-6E64-4009-A8DE-0B43B5044888}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD710AC6-CCD6-44DB-8984-696E16E34119}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65E43A3-2466-47E6-9624-E7A200BA1DF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="531">
   <si>
     <t>"&gt;</t>
   </si>
@@ -1612,58 +1612,67 @@
     <t>&lt;a href="thread.jspa?messageID=604424"&gt;https://forums.aws.amazon.com/thread.jspa?messageID=604424&lt;/a&gt;&lt;/br&gt;</t>
   </si>
   <si>
-    <t>https://aws.amazon.com/swf/faqs/</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/dynamodb/faqs/</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/sns/faqs/</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/tools/</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/VPC_Route_Tables.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStacks.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/general/latest/gr/aws_service_limits.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_BundleInstance.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/sns/latest/dg/SendMessageToHttp.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/s3-access-control.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/autoscaling/</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</t>
+    <t>https://docs.aws.amazon.com/codebuild/latest/userguide/build-spec-ref.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/cors.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/elasticache/</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_create_for-user_externalid.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/publishingMetrics.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/AlarmThatSendsEmail.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/aws-technical-content/latest/microservices-on-aws/simple-microservices-architecture-on-aws.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/troubleshooting.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/redshift/latest/gsg/rs-gsg-create-sample-db.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/codebuild/latest/userguide/build-env-ref-env-vars.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html</t>
   </si>
 </sst>
 </file>
@@ -2121,10 +2130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2134,535 +2143,632 @@
     <col min="3" max="3" width="2.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="45.109375" style="4" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="159.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="4"/>
+    <col min="6" max="6" width="92.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="140.6640625" style="4" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="4"/>
+    <col min="10" max="10" width="20.109375" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="str">
         <f>B1</f>
-        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html</v>
+        <v>https://docs.aws.amazon.com/AmazonS3/latest/dev/cors.html</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/cors.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/cors.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G1" s="4" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1,"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/cors.html"&gt;AmazonS3/latest/dev/cors&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D30" si="0">B2</f>
-        <v>https://aws.amazon.com/sns/faqs/</v>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F30" si="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="https://aws.amazon.com/sns/faqs/"&gt;https://aws.amazon.com/sns/faqs/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f t="shared" ref="G2:G30" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html"&gt;elasticbeanstalk/latest/dg/applications-versions&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/tools/</v>
+        <v>https://aws.amazon.com/elasticache/</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/tools/"&gt;https://aws.amazon.com/tools/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/elasticache/"&gt;https://aws.amazon.com/elasticache/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://aws.amazon.com/elasticache/"&gt;https://aws.amazon.com/elasticache/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html</v>
+        <v>https://docs.aws.amazon.com/codebuild/latest/userguide/build-spec-ref.html</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/build-spec-ref.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/build-spec-ref.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/build-spec-ref.html"&gt;codebuild/latest/userguide/build-spec-ref&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/VPC_Route_Tables.html</v>
+        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/VPC_Route_Tables.html"&gt;http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/VPC_Route_Tables.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html"&gt;apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html</v>
+        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html"&gt;cognito/latest/developerguide/getting-started-with-cognito-sync&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStacks.html</v>
+        <v>https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_create_for-user_externalid.html</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStacks.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/APIReference/API_ListStacks.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_create_for-user_externalid.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_create_for-user_externalid.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_create_for-user_externalid.html"&gt;IAM/latest/UserGuide/id_roles_create_for-user_externalid&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/general/latest/gr/aws_service_limits.html</v>
+        <v>https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/general/latest/gr/aws_service_limits.html"&gt;http://docs.aws.amazon.com/general/latest/gr/aws_service_limits.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html"&gt;AmazonCloudWatch/latest/events/RunLambdaSchedule&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html</v>
+        <v>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/publishingMetrics.html</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/publishingMetrics.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/publishingMetrics.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/publishingMetrics.html"&gt;AmazonCloudWatch/latest/monitoring/publishingMetrics&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_BundleInstance.html</v>
+        <v>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/AlarmThatSendsEmail.html</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_BundleInstance.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/APIReference/API_BundleInstance.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/AlarmThatSendsEmail.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/AlarmThatSendsEmail.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/AlarmThatSendsEmail.html"&gt;AmazonCloudWatch/latest/monitoring/AlarmThatSendsEmail&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>520</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/aws-technical-content/latest/microservices-on-aws/simple-microservices-architecture-on-aws.html</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/aws-technical-content/latest/microservices-on-aws/simple-microservices-architecture-on-aws.html"&gt;https://docs.aws.amazon.com/aws-technical-content/latest/microservices-on-aws/simple-microservices-architecture-on-aws.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/aws-technical-content/latest/microservices-on-aws/simple-microservices-architecture-on-aws.html"&gt;aws-technical-content/latest/microservices-on-aws/simple-microservices-architecture-on-aws&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html"&gt;cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html"&gt;elasticbeanstalk/latest/dg/using-features.platform.upgrade&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/troubleshooting.html</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/troubleshooting.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/troubleshooting.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/troubleshooting.html"&gt;lambda/latest/dg/troubleshooting&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html"&gt;apigateway/latest/developerguide/apigateway-control-access-to-api&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html"&gt;apigateway/latest/developerguide/how-to-deploy-api&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/redshift/latest/gsg/rs-gsg-create-sample-db.html</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/redshift/latest/gsg/rs-gsg-create-sample-db.html"&gt;https://docs.aws.amazon.com/redshift/latest/gsg/rs-gsg-create-sample-db.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/redshift/latest/gsg/rs-gsg-create-sample-db.html"&gt;redshift/latest/gsg/rs-gsg-create-sample-db&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/codebuild/latest/userguide/build-env-ref-env-vars.html</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/build-env-ref-env-vars.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/build-env-ref-env-vars.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/build-env-ref-env-vars.html"&gt;codebuild/latest/userguide/build-env-ref-env-vars&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html"&gt;AmazonS3/latest/dev/serv-side-encryption&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html"&gt;https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html"&gt;general/latest/gr/signing_aws_api_requests&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="F22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="G22" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/swf/faqs/</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/swf/faqs/"&gt;https://aws.amazon.com/swf/faqs/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="D23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="2" t="str">
+      <c r="F23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html"&gt;http://docs.aws.amazon.com/AWSCloudFormation/latest/UserGuide/intrinsic-function-reference-select.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/sns/latest/dg/SendMessageToHttp.html</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/sns/latest/dg/SendMessageToHttp.html"&gt;http://docs.aws.amazon.com/sns/latest/dg/SendMessageToHttp.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/s3-access-control.html</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/s3-access-control.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/s3-access-control.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/ComponentsAMIs.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/swf/faqs/</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/swf/faqs/"&gt;https://aws.amazon.com/swf/faqs/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/dynamodb/faqs/</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/dynamodb/faqs/"&gt;https://aws.amazon.com/dynamodb/faqs/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/autoscaling/</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/autoscaling/"&gt;https://aws.amazon.com/autoscaling/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G23" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>527</v>
-      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="2" t="str">
+      <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -2681,8 +2787,12 @@
         <f t="shared" si="1"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -2701,8 +2811,12 @@
         <f t="shared" si="1"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -2721,8 +2835,12 @@
         <f t="shared" si="1"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -2741,8 +2859,12 @@
         <f t="shared" si="1"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -2761,8 +2883,12 @@
         <f t="shared" si="1"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2781,33 +2907,36 @@
         <f t="shared" si="1"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
+      <c r="G30" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{1F30FF9D-70F6-4068-A09E-C5B931EA13D1}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{95E0B7F4-0331-4244-8631-D8AAB3E6BF2B}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{A8861BBB-4195-4F15-8E55-D35ED2195C09}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{FEE314B1-CABD-4078-9F8F-A12DA19F8C72}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{21985A55-4035-40C3-B9B5-44147F75520F}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{973D494F-1C38-4C73-BD0C-BEDAF6621E49}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{AE1578FD-BD8B-4E06-A0D9-85AC1D1AA323}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{6965B6F2-255B-4E34-9BA9-CF987FF8B131}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{5DAFE40E-3F0A-4EE6-971A-10680BD764D6}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{0F36E10F-E75C-4FC3-8BAB-0951235E46B6}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{F0D290DD-7D1C-47F1-B807-ADAA1D212AD8}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{0642E7E4-3CD0-4E6E-B3BB-5896302F1352}"/>
-    <hyperlink ref="B16" r:id="rId13" xr:uid="{66AE58BF-F1AE-45BD-9C4A-4E6EA23155E7}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{EC5EC893-B4F5-4283-9081-156CE687523A}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{FB1FBA5C-9E82-4817-B8B2-864443B597F3}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{BD58DF8A-8E4B-45B6-9FF7-9A36D783824A}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{3D786A1F-EB04-42B4-87AF-619BC36343B0}"/>
-    <hyperlink ref="B21" r:id="rId18" xr:uid="{E8533553-AE48-43BC-AAAD-74CC04158C47}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{1C8BF399-F064-4648-8CEB-63FBFEE36C2E}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{37BD0D7B-3DA0-42BD-A867-3ECCE5FF54C0}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{856002B5-6E64-4009-A8DE-0B43B5044888}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F2858D37-BD0F-4840-97C5-5D3FE971A12F}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{3E2D34B1-C08C-41F5-B0F0-C0A836558F96}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{199CD5D2-2FD4-434E-8D6E-B787F76BBDE6}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{2CD42668-FF60-444C-87F1-5A8662B97C35}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{092DE714-1F10-46B6-BACA-2BE581C18756}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{305CA36F-3398-4C6E-BE1A-4E4BDE4A3039}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{765B5582-D7E9-4813-89D4-083454BEF887}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{213BD6ED-CF0C-440A-9283-9EED3142C524}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{0A76CC0A-BC50-45AD-AE4A-0D1EA8A57D66}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{787E05FE-B04A-4119-B3AA-C7D9C16D92C1}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{4409E736-F521-4121-BF53-62FCF7E7669B}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{EA088091-8D9B-41FA-B785-7A35318E670B}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{0FF9026C-50D3-4962-9D1F-9471B00D186D}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{97713016-0E85-4A18-9B6D-31939B55E536}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{D366D730-55A0-4AB4-9009-F53EE3CB13D0}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{D06FAC7F-0C24-4C4D-ADBE-0EBBC726F8C3}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{C2C50842-1D34-4050-B1C3-179010F15F5A}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{749EC71B-F128-4E3D-9F22-C4030ACC507C}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{0554B80C-C7FA-4226-BA0E-D2336A7B2955}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{0872C4FD-1F06-456E-BE83-D8AB9D1B4056}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -4635,7 +4764,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>112</v>
       </c>
@@ -4930,7 +5059,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>169</v>
       </c>

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65E43A3-2466-47E6-9624-E7A200BA1DF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE42B751-0BB8-40EC-8E4C-3861457C2A89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="528">
   <si>
     <t>"&gt;</t>
   </si>
@@ -1612,67 +1612,58 @@
     <t>&lt;a href="thread.jspa?messageID=604424"&gt;https://forums.aws.amazon.com/thread.jspa?messageID=604424&lt;/a&gt;&lt;/br&gt;</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/codebuild/latest/userguide/build-spec-ref.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/cors.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/elasticache/</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_create_for-user_externalid.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/publishingMetrics.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/AlarmThatSendsEmail.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/aws-technical-content/latest/microservices-on-aws/simple-microservices-architecture-on-aws.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/troubleshooting.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/redshift/latest/gsg/rs-gsg-create-sample-db.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/codebuild/latest/userguide/build-env-ref-env-vars.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html</t>
+    <t>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-capacity-units-provisioned-throughput</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_mfa.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-security-groups.html#elb-classic-security-groups</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/swf/faqs/</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/vpc-endpoints.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/IAM/latest/UserGuide/tutorial_cross-account-with-roles.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/rds/faqs/</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_PIT.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/cli/latest/reference/rds/describe-db-instances.html</t>
+  </si>
+  <si>
+    <t>~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~&lt;/br&gt;</t>
   </si>
 </sst>
 </file>
@@ -2130,10 +2121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2150,108 +2141,87 @@
     <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="str">
-        <f>B1</f>
-        <v>https://docs.aws.amazon.com/AmazonS3/latest/dev/cors.html</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="str">
-        <f>CONCATENATE(A1,B1,C1,D1,E1)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/cors.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/cors.html&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-      <c r="G1" s="4" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1,"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/cors.html"&gt;AmazonS3/latest/dev/cors&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D30" si="0">B2</f>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html</v>
+        <f>B2</f>
+        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-capacity-units-provisioned-throughput</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
-        <f t="shared" ref="F2:F30" si="1">CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html&lt;/a&gt;&lt;/br&gt;</v>
+        <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
+        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-capacity-units-provisioned-throughput"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-capacity-units-provisioned-throughput&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G2" s="4" t="str">
-        <f t="shared" ref="G2:G30" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-versions.html"&gt;elasticbeanstalk/latest/dg/applications-versions&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
+        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-capacity-units-provisioned-throughput"&gt;amazondynamodb/latest/developerguide/Limits.html#limits-capacity-units-provisioned-throughput&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/elasticache/</v>
+        <f t="shared" ref="D3:D31" si="0">B3</f>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/elasticache/"&gt;https://aws.amazon.com/elasticache/&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" ref="F3:F31" si="1">CONCATENATE(A3,B3,C3,D3,E3)</f>
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="https://aws.amazon.com/elasticache/"&gt;https://aws.amazon.com/elasticache/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G3:G31" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F3,"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;lambda/latest/dg/limits&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/codebuild/latest/userguide/build-spec-ref.html</v>
+        <v>http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/build-spec-ref.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/build-spec-ref.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html"&gt;http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/build-spec-ref.html"&gt;codebuild/latest/userguide/build-spec-ref&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html"&gt;autoscaling/latest/userguide/as-manual-scaling&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -2259,77 +2229,77 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html</v>
+        <v>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_mfa.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_mfa.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_mfa.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api.html"&gt;apigateway/latest/developerguide/api-gateway-control-access-using-iam-policies-to-invoke-api&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_mfa.html"&gt;IAM/latest/UserGuide/id_credentials_mfa&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html</v>
+        <v>http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-security-groups.html#elb-classic-security-groups</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-security-groups.html#elb-classic-security-groups"&gt;http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-security-groups.html#elb-classic-security-groups&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/getting-started-with-cognito-sync.html"&gt;cognito/latest/developerguide/getting-started-with-cognito-sync&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-security-groups.html#elb-classic-security-groups"&gt;elasticloadbalancing/latest/classic/elb-security-groups.html#elb-classic-security-groups&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_create_for-user_externalid.html</v>
+        <v>https://aws.amazon.com/swf/faqs/</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_create_for-user_externalid.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_create_for-user_externalid.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/swf/faqs/"&gt;https://aws.amazon.com/swf/faqs/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_create_for-user_externalid.html"&gt;IAM/latest/UserGuide/id_roles_create_for-user_externalid&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/swf/faqs/"&gt;https://aws.amazon.com/swf/faqs/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -2337,77 +2307,77 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html</v>
+        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/events/RunLambdaSchedule.html"&gt;AmazonCloudWatch/latest/events/RunLambdaSchedule&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html"&gt;AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/publishingMetrics.html</v>
+        <v>http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/vpc-endpoints.html</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/publishingMetrics.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/publishingMetrics.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/vpc-endpoints.html"&gt;http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/vpc-endpoints.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/publishingMetrics.html"&gt;AmazonCloudWatch/latest/monitoring/publishingMetrics&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/vpc-endpoints.html"&gt;AmazonVPC/latest/UserGuide/vpc-endpoints&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/AlarmThatSendsEmail.html</v>
+        <v>https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/AlarmThatSendsEmail.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/AlarmThatSendsEmail.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html"&gt;https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/AlarmThatSendsEmail.html"&gt;AmazonCloudWatch/latest/monitoring/AlarmThatSendsEmail&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html"&gt;cli/latest/reference/sts/decode-authorization-message&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -2415,25 +2385,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/aws-technical-content/latest/microservices-on-aws/simple-microservices-architecture-on-aws.html</v>
+        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/aws-technical-content/latest/microservices-on-aws/simple-microservices-architecture-on-aws.html"&gt;https://docs.aws.amazon.com/aws-technical-content/latest/microservices-on-aws/simple-microservices-architecture-on-aws.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/aws-technical-content/latest/microservices-on-aws/simple-microservices-architecture-on-aws.html"&gt;aws-technical-content/latest/microservices-on-aws/simple-microservices-architecture-on-aws&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html"&gt;AWSSimpleQueueService/latest/APIReference/API_DeleteQueue&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -2441,77 +2411,77 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</v>
+        <v>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html"&gt;IAM/latest/UserGuide/id_roles&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html</v>
+        <v>https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html"&gt;https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html"&gt;https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials.html"&gt;cognito/latest/developerguide/cognito-user-pool-settings-compromised-credentials&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html"&gt;autoscaling/ec2/userguide/us-iam-role&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html</v>
+        <v>https://docs.aws.amazon.com/IAM/latest/UserGuide/tutorial_cross-account-with-roles.html</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/tutorial_cross-account-with-roles.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/tutorial_cross-account-with-roles.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.platform.upgrade.html"&gt;elasticbeanstalk/latest/dg/using-features.platform.upgrade&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/tutorial_cross-account-with-roles.html"&gt;IAM/latest/UserGuide/tutorial_cross-account-with-roles&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -2519,77 +2489,77 @@
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/troubleshooting.html</v>
+        <v>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/troubleshooting.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/troubleshooting.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/troubleshooting.html"&gt;lambda/latest/dg/troubleshooting&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html"&gt;AmazonCloudWatch/latest/monitoring/cloudwatch_limits&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html</v>
+        <v>https://aws.amazon.com/rds/faqs/</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/rds/faqs/"&gt;https://aws.amazon.com/rds/faqs/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/apigateway-control-access-to-api.html"&gt;apigateway/latest/developerguide/apigateway-control-access-to-api&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/rds/faqs/"&gt;https://aws.amazon.com/rds/faqs/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html</v>
+        <v>http://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_PIT.html</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html"&gt;https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_PIT.html"&gt;http://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_PIT.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/apigateway/latest/developerguide/how-to-deploy-api.html"&gt;apigateway/latest/developerguide/how-to-deploy-api&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_PIT.html"&gt;AmazonRDS/latest/UserGuide/USER_PIT&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.3">
@@ -2597,103 +2567,97 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/redshift/latest/gsg/rs-gsg-create-sample-db.html</v>
+        <v>http://docs.aws.amazon.com/cli/latest/reference/rds/describe-db-instances.html</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/redshift/latest/gsg/rs-gsg-create-sample-db.html"&gt;https://docs.aws.amazon.com/redshift/latest/gsg/rs-gsg-create-sample-db.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/cli/latest/reference/rds/describe-db-instances.html"&gt;http://docs.aws.amazon.com/cli/latest/reference/rds/describe-db-instances.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/redshift/latest/gsg/rs-gsg-create-sample-db.html"&gt;redshift/latest/gsg/rs-gsg-create-sample-db&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/cli/latest/reference/rds/describe-db-instances.html"&gt;cli/latest/reference/rds/describe-db-instances&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>528</v>
-      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/codebuild/latest/userguide/build-env-ref-env-vars.html</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/build-env-ref-env-vars.html"&gt;https://docs.aws.amazon.com/codebuild/latest/userguide/build-env-ref-env-vars.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/codebuild/latest/userguide/build-env-ref-env-vars.html"&gt;codebuild/latest/userguide/build-env-ref-env-vars&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>529</v>
-      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html"&gt;https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html"&gt;AmazonS3/latest/dev/serv-side-encryption&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>530</v>
-      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html"&gt;https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/general/latest/gr/signing_aws_api_requests.html"&gt;general/latest/gr/signing_aws_api_requests&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2716,7 +2680,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G22" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F22,"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
@@ -2892,7 +2856,7 @@
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="3" t="s">
         <v>0</v>
       </c>
@@ -2912,31 +2876,52 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F2858D37-BD0F-4840-97C5-5D3FE971A12F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{3E2D34B1-C08C-41F5-B0F0-C0A836558F96}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{199CD5D2-2FD4-434E-8D6E-B787F76BBDE6}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{2CD42668-FF60-444C-87F1-5A8662B97C35}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{092DE714-1F10-46B6-BACA-2BE581C18756}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{305CA36F-3398-4C6E-BE1A-4E4BDE4A3039}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{765B5582-D7E9-4813-89D4-083454BEF887}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{213BD6ED-CF0C-440A-9283-9EED3142C524}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{0A76CC0A-BC50-45AD-AE4A-0D1EA8A57D66}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{787E05FE-B04A-4119-B3AA-C7D9C16D92C1}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{4409E736-F521-4121-BF53-62FCF7E7669B}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{EA088091-8D9B-41FA-B785-7A35318E670B}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{0FF9026C-50D3-4962-9D1F-9471B00D186D}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{97713016-0E85-4A18-9B6D-31939B55E536}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{D366D730-55A0-4AB4-9009-F53EE3CB13D0}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{D06FAC7F-0C24-4C4D-ADBE-0EBBC726F8C3}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{C2C50842-1D34-4050-B1C3-179010F15F5A}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{749EC71B-F128-4E3D-9F22-C4030ACC507C}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{0554B80C-C7FA-4226-BA0E-D2336A7B2955}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{0872C4FD-1F06-456E-BE83-D8AB9D1B4056}"/>
+    <hyperlink ref="B2" r:id="rId1" location="limits-capacity-units-provisioned-throughput" xr:uid="{31B8FA2C-6155-4161-ABA9-9CA623DFFC3B}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{E6017E3A-7A2E-4DA6-A397-CCD5E7A44B0D}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{29C556C5-EDA8-4AEB-A4C9-A89A706C0E9B}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{88766778-5B35-47FF-BC3C-A489C6AB0874}"/>
+    <hyperlink ref="B6" r:id="rId5" location="elb-classic-security-groups" xr:uid="{64AF9452-36E6-4E6E-A4CF-B49E5A71FE02}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{F0186986-14F6-4097-95E3-CF1C348F7223}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{913F3E5D-3E88-42CD-97FF-535734FACA4B}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{FCB051A5-5391-4336-8286-54227FCAAE6D}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{252EE8EA-C054-4638-A547-8A7579ACAB1A}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{0D94130F-1BA9-410B-A005-778D362F2451}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{26DF44F4-43A0-411F-B6DB-8588E7DAB58D}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{6C4D956A-116C-4AC7-B9B7-FB370A146CBC}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{A20DE207-9E05-4011-BCED-51BBD40847A9}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{512F8F08-79E5-4884-B15E-BCEB60C737BC}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{DB0C2114-2772-47DA-8C93-71A832271A0E}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{F99714FE-AA26-4784-BDD5-1EE39F7A49D9}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{E2C319CD-F316-4698-BA52-5B18546E93C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -4764,7 +4749,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>112</v>
       </c>
@@ -5059,7 +5044,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>169</v>
       </c>

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE42B751-0BB8-40EC-8E4C-3861457C2A89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6B6732-969D-453A-8496-AC983998DA57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="519">
   <si>
     <t>"&gt;</t>
   </si>
@@ -1612,58 +1612,31 @@
     <t>&lt;a href="thread.jspa?messageID=604424"&gt;https://forums.aws.amazon.com/thread.jspa?messageID=604424&lt;/a&gt;&lt;/br&gt;</t>
   </si>
   <si>
-    <t>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-capacity-units-provisioned-throughput</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_mfa.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-security-groups.html#elb-classic-security-groups</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/swf/faqs/</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/vpc-endpoints.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/IAM/latest/UserGuide/tutorial_cross-account-with-roles.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/rds/faqs/</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_PIT.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/cli/latest/reference/rds/describe-db-instances.html</t>
-  </si>
-  <si>
     <t>~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~&lt;/br&gt;</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/lambda/latest/dg/limits.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/en_pv/lambda/latest/dg/invocation-async.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2097,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2143,85 +2116,85 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G1" s="4" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>B2</f>
-        <v>http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-capacity-units-provisioned-throughput</v>
+        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-capacity-units-provisioned-throughput"&gt;http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-capacity-units-provisioned-throughput&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G2" s="4" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/amazondynamodb/latest/developerguide/Limits.html#limits-capacity-units-provisioned-throughput"&gt;amazondynamodb/latest/developerguide/Limits.html#limits-capacity-units-provisioned-throughput&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G2:G4" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html"&gt;AWSEC2/latest/UserGuide/EBSSnapshots&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D31" si="0">B3</f>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/limits.html</v>
+        <f t="shared" ref="D3:D31" si="1">B3</f>
+        <v>http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F31" si="1">CONCATENATE(A3,B3,C3,D3,E3)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" ref="F3:F31" si="2">CONCATENATE(A3,B3,C3,D3,E3)</f>
+        <v>&lt;a href="http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt"&gt;http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="shared" ref="G3:G31" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F3,"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;lambda/latest/dg/limits&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt"&gt;kms/latest/developerguide/services-ebs.html#ebs-encrypt&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html</v>
+        <f t="shared" si="1"/>
+        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html"&gt;http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G4" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/autoscaling/latest/userguide/as-manual-scaling.html"&gt;autoscaling/latest/userguide/as-manual-scaling&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html"&gt;AmazonS3/latest/dev/ObjectVersioning&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -2229,77 +2202,77 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_mfa.html</v>
+        <f t="shared" si="1"/>
+        <v>http://docs.aws.amazon.com/lambda/latest/dg/limits.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_mfa.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_mfa.html&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href="http://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;http://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G5" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_credentials_mfa.html"&gt;IAM/latest/UserGuide/id_credentials_mfa&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F5,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
+        <v>&lt;a href="http://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;lambda/latest/dg/limits&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-security-groups.html#elb-classic-security-groups</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.aws.amazon.com/en_pv/lambda/latest/dg/invocation-async.html</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-security-groups.html#elb-classic-security-groups"&gt;http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-security-groups.html#elb-classic-security-groups&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/en_pv/lambda/latest/dg/invocation-async.html"&gt;https://docs.aws.amazon.com/en_pv/lambda/latest/dg/invocation-async.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G6" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/elasticloadbalancing/latest/classic/elb-security-groups.html#elb-classic-security-groups"&gt;elasticloadbalancing/latest/classic/elb-security-groups.html#elb-classic-security-groups&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G6:G31" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F6,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
+        <v>&lt;a href="https://docs.aws.amazon.com/en_pv/lambda/latest/dg/invocation-async.html"&gt;en_pv/lambda/latest/dg/invocation-async&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/swf/faqs/</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/swf/faqs/"&gt;https://aws.amazon.com/swf/faqs/&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="https://aws.amazon.com/swf/faqs/"&gt;https://aws.amazon.com/swf/faqs/&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html"&gt;amazondynamodb/latest/developerguide/bp-partition-key-uniform-load&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -2307,285 +2280,267 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys.html"&gt;AmazonS3/latest/dev/ServerSideEncryptionCustomerKeys&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html"&gt;IAM/latest/UserGuide/reference_policies_variables&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/vpc-endpoints.html</v>
+        <f t="shared" si="1"/>
+        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/vpc-endpoints.html"&gt;http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/vpc-endpoints.html&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonVPC/latest/UserGuide/vpc-endpoints.html"&gt;AmazonVPC/latest/UserGuide/vpc-endpoints&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html"&gt;AmazonS3/latest/dev/ServerLogs&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>518</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html</v>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html"&gt;https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/cli/latest/reference/sts/decode-authorization-message.html"&gt;cli/latest/reference/sts/decode-authorization-message&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>519</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html</v>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_DeleteQueue.html"&gt;AWSSimpleQueueService/latest/APIReference/API_DeleteQueue&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>520</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html</v>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles.html"&gt;IAM/latest/UserGuide/id_roles&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>521</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html</v>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html"&gt;https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/autoscaling/ec2/userguide/us-iam-role.html"&gt;autoscaling/ec2/userguide/us-iam-role&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>522</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/IAM/latest/UserGuide/tutorial_cross-account-with-roles.html</v>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/tutorial_cross-account-with-roles.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/tutorial_cross-account-with-roles.html&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/tutorial_cross-account-with-roles.html"&gt;IAM/latest/UserGuide/tutorial_cross-account-with-roles&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>523</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html</v>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html"&gt;https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/AmazonCloudWatch/latest/monitoring/cloudwatch_limits.html"&gt;AmazonCloudWatch/latest/monitoring/cloudwatch_limits&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>524</v>
-      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://aws.amazon.com/rds/faqs/</v>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="https://aws.amazon.com/rds/faqs/"&gt;https://aws.amazon.com/rds/faqs/&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="https://aws.amazon.com/rds/faqs/"&gt;https://aws.amazon.com/rds/faqs/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>525</v>
-      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_PIT.html</v>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_PIT.html"&gt;http://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_PIT.html&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G17" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonRDS/latest/UserGuide/USER_PIT.html"&gt;AmazonRDS/latest/UserGuide/USER_PIT&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>526</v>
-      </c>
+      <c r="B18" s="5"/>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>http://docs.aws.amazon.com/cli/latest/reference/rds/describe-db-instances.html</v>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/cli/latest/reference/rds/describe-db-instances.html"&gt;http://docs.aws.amazon.com/cli/latest/reference/rds/describe-db-instances.html&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G18" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/cli/latest/reference/rds/describe-db-instances.html"&gt;cli/latest/reference/rds/describe-db-instances&lt;/a&gt;&lt;/br&gt;</v>
+        <f t="shared" si="3"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2597,18 +2552,18 @@
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G19" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
@@ -2621,18 +2576,18 @@
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G20" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
@@ -2645,18 +2600,18 @@
         <v>0</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G21" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
@@ -2669,18 +2624,18 @@
         <v>0</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G22" s="4" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F22,"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
+        <f t="shared" si="3"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
@@ -2693,18 +2648,18 @@
         <v>0</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G23" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
@@ -2717,18 +2672,18 @@
         <v>0</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G24" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
@@ -2741,18 +2696,18 @@
         <v>0</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G25" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
@@ -2765,18 +2720,18 @@
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G26" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
@@ -2789,18 +2744,18 @@
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G27" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
@@ -2813,18 +2768,18 @@
         <v>0</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G28" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
@@ -2837,18 +2792,18 @@
         <v>0</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G29" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
@@ -2861,18 +2816,18 @@
         <v>0</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G30" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
@@ -2885,43 +2840,34 @@
         <v>0</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-      <c r="G31" s="4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
+      <c r="G31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="limits-capacity-units-provisioned-throughput" xr:uid="{31B8FA2C-6155-4161-ABA9-9CA623DFFC3B}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{E6017E3A-7A2E-4DA6-A397-CCD5E7A44B0D}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{29C556C5-EDA8-4AEB-A4C9-A89A706C0E9B}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{88766778-5B35-47FF-BC3C-A489C6AB0874}"/>
-    <hyperlink ref="B6" r:id="rId5" location="elb-classic-security-groups" xr:uid="{64AF9452-36E6-4E6E-A4CF-B49E5A71FE02}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{F0186986-14F6-4097-95E3-CF1C348F7223}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{913F3E5D-3E88-42CD-97FF-535734FACA4B}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{FCB051A5-5391-4336-8286-54227FCAAE6D}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{252EE8EA-C054-4638-A547-8A7579ACAB1A}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{0D94130F-1BA9-410B-A005-778D362F2451}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{26DF44F4-43A0-411F-B6DB-8588E7DAB58D}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{6C4D956A-116C-4AC7-B9B7-FB370A146CBC}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{A20DE207-9E05-4011-BCED-51BBD40847A9}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{512F8F08-79E5-4884-B15E-BCEB60C737BC}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{DB0C2114-2772-47DA-8C93-71A832271A0E}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{F99714FE-AA26-4784-BDD5-1EE39F7A49D9}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{E2C319CD-F316-4698-BA52-5B18546E93C7}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A0BE4A78-AB5F-460E-B1D9-762FF4F92E3F}"/>
+    <hyperlink ref="B3" r:id="rId2" location="ebs-encrypt" xr:uid="{2520A2AD-741B-4ECE-9385-208DEE2D4588}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{3D39FD67-0A9A-4667-A19D-95175793BDC0}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{9C5CABD5-1522-48AC-AD4B-20D59E668974}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{2C9A903D-78CD-4BCD-A618-3EB8716E15EE}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{4BDC3B77-39B3-49E6-8367-E125D4BCA476}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{2685571E-C9B6-4DFB-843B-D6D307FF3C83}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{0C1A9EDB-E398-4B4D-A4F6-34E4EE277D41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -4749,7 +4695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>112</v>
       </c>
@@ -5044,7 +4990,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>169</v>
       </c>

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6B6732-969D-453A-8496-AC983998DA57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783617AB-F488-4CA0-86AC-763629B98D4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="520">
   <si>
     <t>"&gt;</t>
   </si>
@@ -1615,28 +1615,31 @@
     <t>~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~&lt;/br&gt;</t>
   </si>
   <si>
-    <t>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/lambda/latest/dg/limits.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/en_pv/lambda/latest/dg/invocation-async.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html</t>
+    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_iam-limits.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-devicetoken.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/sdk-for-javascript/v2/developer-guide/config-web-identity-examples.html</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/articles/1636185810492479</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2100,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2119,7 +2122,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2131,21 +2134,21 @@
       </c>
       <c r="D2" s="2" t="str">
         <f>B2</f>
-        <v>http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html</v>
+        <v>http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_iam-limits.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html"&gt;http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_iam-limits.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_iam-limits.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" ref="G2:G4" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSSnapshots.html"&gt;AWSEC2/latest/UserGuide/EBSSnapshots&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_iam-limits.html"&gt;IAM/latest/UserGuide/reference_iam-limits&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2157,18 +2160,18 @@
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:D31" si="1">B3</f>
-        <v>http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt</v>
+        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ref="F3:F31" si="2">CONCATENATE(A3,B3,C3,D3,E3)</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt"&gt;http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/kms/latest/developerguide/services-ebs.html#ebs-encrypt"&gt;kms/latest/developerguide/services-ebs.html#ebs-encrypt&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3"&gt;AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -2183,21 +2186,21 @@
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html</v>
+        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle.html</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ObjectVersioning.html"&gt;AmazonS3/latest/dev/ObjectVersioning&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle.html"&gt;AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2209,18 +2212,18 @@
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>http://docs.aws.amazon.com/lambda/latest/dg/limits.html</v>
+        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;http://docs.aws.amazon.com/lambda/latest/dg/limits.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F5,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/lambda/latest/dg/limits.html"&gt;lambda/latest/dg/limits&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes.html"&gt;AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.3">
@@ -2235,18 +2238,18 @@
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>https://docs.aws.amazon.com/en_pv/lambda/latest/dg/invocation-async.html</v>
+        <v>http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-devicetoken.html</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/en_pv/lambda/latest/dg/invocation-async.html"&gt;https://docs.aws.amazon.com/en_pv/lambda/latest/dg/invocation-async.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-devicetoken.html"&gt;http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-devicetoken.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" ref="G6:G31" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F6,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/en_pv/lambda/latest/dg/invocation-async.html"&gt;en_pv/lambda/latest/dg/invocation-async&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-devicetoken.html"&gt;sns/latest/dg/mobile-push-send-devicetoken&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.3">
@@ -2261,21 +2264,21 @@
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html</v>
+        <v>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/bp-partition-key-uniform-load.html"&gt;amazondynamodb/latest/developerguide/bp-partition-key-uniform-load&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html"&gt;IAM/latest/UserGuide/id_roles_providers_oidc&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -2287,21 +2290,21 @@
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html</v>
+        <v>http://docs.aws.amazon.com/sdk-for-javascript/v2/developer-guide/config-web-identity-examples.html</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/sdk-for-javascript/v2/developer-guide/config-web-identity-examples.html"&gt;http://docs.aws.amazon.com/sdk-for-javascript/v2/developer-guide/config-web-identity-examples.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_variables.html"&gt;IAM/latest/UserGuide/reference_policies_variables&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/sdk-for-javascript/v2/developer-guide/config-web-identity-examples.html"&gt;sdk-for-javascript/v2/developer-guide/config-web-identity-examples&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -2313,42 +2316,44 @@
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html</v>
+        <v>https://aws.amazon.com/articles/1636185810492479</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/articles/1636185810492479"&gt;https://aws.amazon.com/articles/1636185810492479&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/ServerLogs.html"&gt;AmazonS3/latest/dev/ServerLogs&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/articles/1636185810492479"&gt;articles/1636185810492479&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>519</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html"&gt;lambda/latest/dg/best-practices&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2857,14 +2862,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{A0BE4A78-AB5F-460E-B1D9-762FF4F92E3F}"/>
-    <hyperlink ref="B3" r:id="rId2" location="ebs-encrypt" xr:uid="{2520A2AD-741B-4ECE-9385-208DEE2D4588}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{3D39FD67-0A9A-4667-A19D-95175793BDC0}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{9C5CABD5-1522-48AC-AD4B-20D59E668974}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{2C9A903D-78CD-4BCD-A618-3EB8716E15EE}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{4BDC3B77-39B3-49E6-8367-E125D4BCA476}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{2685571E-C9B6-4DFB-843B-D6D307FF3C83}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{0C1A9EDB-E398-4B4D-A4F6-34E4EE277D41}"/>
+    <hyperlink ref="B3" r:id="rId1" location="example-bucket-policies-use-case-3" xr:uid="{2651B0E6-9D95-43B0-92F0-72AA4C7434EB}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{47D5338B-AE94-4FAF-958D-445108F94143}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{AB49AB3A-171A-4D5B-AADF-985FBFFE9091}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{E69A22FE-FF34-49FC-9D3D-491B15C08DE0}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{D9D27A59-B6BF-44A9-A208-E81E36EBD9C8}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{8853FA07-6B2B-418C-9E9B-ABDAE55169FD}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{9CF1D388-490F-45F9-8A06-9891AC313189}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{297AD29A-DD19-4F0A-BA27-D1BA539C666D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783617AB-F488-4CA0-86AC-763629B98D4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A38D36-E607-4485-95EF-F77151194436}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="515">
   <si>
     <t>"&gt;</t>
   </si>
@@ -1615,31 +1615,16 @@
     <t>~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~&lt;/br&gt;</t>
   </si>
   <si>
-    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_iam-limits.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-devicetoken.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html</t>
-  </si>
-  <si>
-    <t>http://docs.aws.amazon.com/sdk-for-javascript/v2/developer-guide/config-web-identity-examples.html</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/articles/1636185810492479</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html</t>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/with-ddb.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/xray/latest/devguide/aws-xray.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/lambda/latest/dg/with-s3.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1758,6 +1743,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2100,7 +2086,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2126,7 +2112,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>511</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2134,21 +2120,21 @@
       </c>
       <c r="D2" s="2" t="str">
         <f>B2</f>
-        <v>http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_iam-limits.html</v>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/with-ddb.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_iam-limits.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_iam-limits.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/with-ddb.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/with-ddb.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" ref="G2:G4" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_iam-limits.html"&gt;IAM/latest/UserGuide/reference_iam-limits&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/with-ddb.html"&gt;lambda/latest/dg/with-ddb&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2160,21 +2146,21 @@
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:D31" si="1">B3</f>
-        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3</v>
+        <v>https://docs.aws.amazon.com/xray/latest/devguide/aws-xray.html</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ref="F3:F31" si="2">CONCATENATE(A3,B3,C3,D3,E3)</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/xray/latest/devguide/aws-xray.html"&gt;https://docs.aws.amazon.com/xray/latest/devguide/aws-xray.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3"&gt;AmazonS3/latest/dev/example-bucket-policies.html#example-bucket-policies-use-case-3&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/xray/latest/devguide/aws-xray.html"&gt;xray/latest/devguide/aws-xray&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2186,21 +2172,21 @@
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle.html</v>
+        <v>https://docs.aws.amazon.com/lambda/latest/dg/with-s3.html</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/with-s3.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/with-s3.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle.html"&gt;AWSSimpleQueueService/latest/SQSDeveloperGuide/sqs-message-lifecycle&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/with-s3.html"&gt;lambda/latest/dg/with-s3&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2212,148 +2198,138 @@
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes.html</v>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes.html"&gt;http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F5,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes.html"&gt;AWSSimpleQueueService/latest/APIReference/API_SetQueueAttributes&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html"&gt;elasticbeanstalk/latest/dg/applications-sourcebundle&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>515</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-devicetoken.html</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-devicetoken.html"&gt;http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-devicetoken.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" ref="G6:G31" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F6,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="http://docs.aws.amazon.com/sns/latest/dg/mobile-push-send-devicetoken.html"&gt;sns/latest/dg/mobile-push-send-devicetoken&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>516</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html"&gt;IAM/latest/UserGuide/id_roles_providers_oidc&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>517</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>http://docs.aws.amazon.com/sdk-for-javascript/v2/developer-guide/config-web-identity-examples.html</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/sdk-for-javascript/v2/developer-guide/config-web-identity-examples.html"&gt;http://docs.aws.amazon.com/sdk-for-javascript/v2/developer-guide/config-web-identity-examples.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="http://docs.aws.amazon.com/sdk-for-javascript/v2/developer-guide/config-web-identity-examples.html"&gt;sdk-for-javascript/v2/developer-guide/config-web-identity-examples&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>518</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>https://aws.amazon.com/articles/1636185810492479</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://aws.amazon.com/articles/1636185810492479"&gt;https://aws.amazon.com/articles/1636185810492479&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://aws.amazon.com/articles/1636185810492479"&gt;articles/1636185810492479&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>519</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/best-practices.html"&gt;lambda/latest/dg/best-practices&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2862,17 +2838,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location="example-bucket-policies-use-case-3" xr:uid="{2651B0E6-9D95-43B0-92F0-72AA4C7434EB}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{47D5338B-AE94-4FAF-958D-445108F94143}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{AB49AB3A-171A-4D5B-AADF-985FBFFE9091}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{E69A22FE-FF34-49FC-9D3D-491B15C08DE0}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{D9D27A59-B6BF-44A9-A208-E81E36EBD9C8}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{8853FA07-6B2B-418C-9E9B-ABDAE55169FD}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{9CF1D388-490F-45F9-8A06-9891AC313189}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{297AD29A-DD19-4F0A-BA27-D1BA539C666D}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1943E93B-862B-4AFD-99B0-35CAC5AA0850}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{6AAB1626-7CFD-435C-9731-75B652782B83}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{90D774FA-916D-4588-9313-3BF3DDFF344E}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{86EB1304-094A-423D-AD2A-4EF1AC557CE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4700,7 +4672,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>112</v>
       </c>
@@ -4995,7 +4967,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>169</v>
       </c>

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A38D36-E607-4485-95EF-F77151194436}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFA7443-2A8A-4152-8B7C-2CBB136E5984}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="513">
   <si>
     <t>"&gt;</t>
   </si>
@@ -1615,16 +1615,10 @@
     <t>~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~&lt;/br&gt;</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/with-ddb.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/xray/latest/devguide/aws-xray.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/lambda/latest/dg/with-s3.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html</t>
+    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2080,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2108,7 +2102,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2120,21 +2114,21 @@
       </c>
       <c r="D2" s="2" t="str">
         <f>B2</f>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/with-ddb.html</v>
+        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/with-ddb.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/with-ddb.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" ref="G2:G4" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/with-ddb.html"&gt;lambda/latest/dg/with-ddb&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html"&gt;elasticbeanstalk/latest/dg/using-features.managing.db&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2146,73 +2140,69 @@
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:D31" si="1">B3</f>
-        <v>https://docs.aws.amazon.com/xray/latest/devguide/aws-xray.html</v>
+        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ref="F3:F31" si="2">CONCATENATE(A3,B3,C3,D3,E3)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/xray/latest/devguide/aws-xray.html"&gt;https://docs.aws.amazon.com/xray/latest/devguide/aws-xray.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/xray/latest/devguide/aws-xray.html"&gt;xray/latest/devguide/aws-xray&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>513</v>
-      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>https://docs.aws.amazon.com/lambda/latest/dg/with-s3.html</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/with-s3.html"&gt;https://docs.aws.amazon.com/lambda/latest/dg/with-s3.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/lambda/latest/dg/with-s3.html"&gt;lambda/latest/dg/with-s3&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>514</v>
-      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F5,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/applications-sourcebundle.html"&gt;elasticbeanstalk/latest/dg/applications-sourcebundle&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2236,7 +2226,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -2260,7 +2250,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -2308,7 +2298,7 @@
         <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -2838,13 +2828,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{1943E93B-862B-4AFD-99B0-35CAC5AA0850}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{6AAB1626-7CFD-435C-9731-75B652782B83}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{90D774FA-916D-4588-9313-3BF3DDFF344E}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{86EB1304-094A-423D-AD2A-4EF1AC557CE2}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F4D401E9-EDF2-407C-9112-2E7BF28A1B97}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{05BDC7C2-12AB-4610-8438-5AE1733399C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4672,7 +4660,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>112</v>
       </c>
@@ -4967,7 +4955,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>169</v>
       </c>

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFA7443-2A8A-4152-8B7C-2CBB136E5984}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F16C4-F44E-4A73-BD1C-7B141A7D6A11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="521">
   <si>
     <t>"&gt;</t>
   </si>
@@ -1615,10 +1615,34 @@
     <t>~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~&lt;/br&gt;</t>
   </si>
   <si>
-    <t>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html</t>
-  </si>
-  <si>
-    <t>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</t>
+    <t>https://aws.amazon.com/blogs/database/choosing-the-right-dynamodb-partition-key/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ec2/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/ecs/faqs/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/codestar/features/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/dynamodb/dax/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1737,7 +1761,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2079,14 +2102,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="90.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.88671875" style="5" customWidth="1"/>
     <col min="3" max="3" width="2.33203125" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="45.109375" style="4" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" style="4" hidden="1" customWidth="1"/>
@@ -2102,30 +2125,30 @@
         <v>510</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>511</v>
+      <c r="B2" s="5" t="s">
+        <v>512</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>B2</f>
-        <v>https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html</v>
+        <v>https://aws.amazon.com/ec2/</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html"&gt;https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/ec2/"&gt;https://aws.amazon.com/ec2/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" ref="G2:G4" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/elasticbeanstalk/latest/dg/using-features.managing.db.html"&gt;elasticbeanstalk/latest/dg/using-features.managing.db&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/ec2/"&gt;ec2/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -2133,224 +2156,239 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:D31" si="1">B3</f>
-        <v>https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html</v>
+        <v>https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ref="F3:F31" si="2">CONCATENATE(A3,B3,C3,D3,E3)</f>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/"&gt;https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://docs.aws.amazon.com/amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput.html"&gt;amazondynamodb/latest/developerguide/HowItWorks.ProvisionedThroughput&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/"&gt;blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>511</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>https://aws.amazon.com/blogs/database/choosing-the-right-dynamodb-partition-key/</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/blogs/database/choosing-the-right-dynamodb-partition-key/"&gt;https://aws.amazon.com/blogs/database/choosing-the-right-dynamodb-partition-key/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/blogs/database/choosing-the-right-dynamodb-partition-key/"&gt;blogs/database/choosing-the-right-dynamodb-partition-key/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>514</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>https://aws.amazon.com/ecs/faqs/</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/ecs/faqs/"&gt;https://aws.amazon.com/ecs/faqs/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F5,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/ecs/faqs/"&gt;ecs/faqs/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>515</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>https://aws.amazon.com/codestar/features/</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/codestar/features/"&gt;https://aws.amazon.com/codestar/features/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" ref="G6:G31" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F6,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/codestar/features/"&gt;codestar/features/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>516</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/"&gt;https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/"&gt;blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>517</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/"&gt;https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/"&gt;about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>518</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>https://aws.amazon.com/dynamodb/dax/</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/dynamodb/dax/"&gt;https://aws.amazon.com/dynamodb/dax/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/dynamodb/dax/"&gt;dynamodb/dax/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>519</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/"&gt;https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/"&gt;blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>520</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/"&gt;https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/"&gt;about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5"/>
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2374,7 +2412,6 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
@@ -2398,7 +2435,6 @@
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5"/>
       <c r="C14" s="3" t="s">
         <v>0</v>
       </c>
@@ -2422,7 +2458,6 @@
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5"/>
       <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
@@ -2446,7 +2481,6 @@
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5"/>
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
@@ -2470,7 +2504,6 @@
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="5"/>
       <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
@@ -2494,7 +2527,6 @@
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5"/>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2550,6 @@
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5"/>
       <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
@@ -2542,7 +2573,6 @@
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="3" t="s">
         <v>0</v>
       </c>
@@ -2566,7 +2596,6 @@
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
@@ -2590,7 +2619,6 @@
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="3" t="s">
         <v>0</v>
       </c>
@@ -2614,7 +2642,6 @@
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
@@ -2638,7 +2665,6 @@
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="3" t="s">
         <v>0</v>
       </c>
@@ -2662,7 +2688,6 @@
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="3" t="s">
         <v>0</v>
       </c>
@@ -2686,7 +2711,6 @@
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="5"/>
       <c r="C26" s="3" t="s">
         <v>0</v>
       </c>
@@ -2710,7 +2734,6 @@
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="5"/>
       <c r="C27" s="3" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2757,6 @@
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="5"/>
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
@@ -2758,7 +2780,6 @@
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="5"/>
       <c r="C29" s="3" t="s">
         <v>0</v>
       </c>
@@ -2782,7 +2803,6 @@
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="5"/>
       <c r="C30" s="3" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +2826,6 @@
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="2"/>
       <c r="C31" s="3" t="s">
         <v>0</v>
       </c>
@@ -2828,11 +2847,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F4D401E9-EDF2-407C-9112-2E7BF28A1B97}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{05BDC7C2-12AB-4610-8438-5AE1733399C7}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{169341F6-0A9A-4B2F-94C0-C2B10DDADB42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/link-template.xlsx
+++ b/link-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\@AWS\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3F16C4-F44E-4A73-BD1C-7B141A7D6A11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302C2F4C-18CE-476E-9A4A-2E4C355FD0B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="516">
   <si>
     <t>"&gt;</t>
   </si>
@@ -1615,34 +1615,19 @@
     <t>~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~&lt;/br&gt;</t>
   </si>
   <si>
-    <t>https://aws.amazon.com/blogs/database/choosing-the-right-dynamodb-partition-key/</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ec2/</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/ecs/faqs/</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/codestar/features/</t>
-  </si>
-  <si>
     <t>https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/</t>
   </si>
   <si>
-    <t>https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/dynamodb/dax/</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/</t>
-  </si>
-  <si>
-    <t>https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/</t>
+    <t>https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSEncryption.html</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html</t>
+  </si>
+  <si>
+    <t>http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2088,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2137,21 +2122,21 @@
       </c>
       <c r="D2" s="2" t="str">
         <f>B2</f>
-        <v>https://aws.amazon.com/ec2/</v>
+        <v>https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSEncryption.html</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>CONCATENATE(A2,B2,C2,D2,E2)</f>
-        <v>&lt;a href="https://aws.amazon.com/ec2/"&gt;https://aws.amazon.com/ec2/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSEncryption.html"&gt;https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSEncryption.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" ref="G2:G4" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F2,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="https://aws.amazon.com/ec2/"&gt;ec2/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/AWSEC2/latest/UserGuide/EBSEncryption.html"&gt;AWSEC2/latest/UserGuide/EBSEncryption&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2163,21 +2148,21 @@
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:D31" si="1">B3</f>
-        <v>https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/</v>
+        <v>https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ref="F3:F31" si="2">CONCATENATE(A3,B3,C3,D3,E3)</f>
-        <v>&lt;a href="https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/"&gt;https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html"&gt;https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://aws.amazon.com/blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/"&gt;blogs/big-data/preprocessing-data-in-amazon-kinesis-analytics-with-aws-lambda/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://docs.aws.amazon.com/IAM/latest/UserGuide/id_roles_providers_oidc.html"&gt;IAM/latest/UserGuide/id_roles_providers_oidc&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2189,21 +2174,21 @@
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>https://aws.amazon.com/blogs/database/choosing-the-right-dynamodb-partition-key/</v>
+        <v>https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://aws.amazon.com/blogs/database/choosing-the-right-dynamodb-partition-key/"&gt;https://aws.amazon.com/blogs/database/choosing-the-right-dynamodb-partition-key/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/"&gt;https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;a href="https://aws.amazon.com/blogs/database/choosing-the-right-dynamodb-partition-key/"&gt;blogs/database/choosing-the-right-dynamodb-partition-key/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>&lt;a href="https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/"&gt;blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2215,21 +2200,21 @@
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>https://aws.amazon.com/ecs/faqs/</v>
+        <v>http://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://aws.amazon.com/ecs/faqs/"&gt;https://aws.amazon.com/ecs/faqs/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html"&gt;http://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F5,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="https://aws.amazon.com/ecs/faqs/"&gt;ecs/faqs/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/AmazonS3/latest/dev/serv-side-encryption.html"&gt;AmazonS3/latest/dev/serv-side-encryption&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2241,148 +2226,133 @@
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>https://aws.amazon.com/codestar/features/</v>
+        <v>http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://aws.amazon.com/codestar/features/"&gt;https://aws.amazon.com/codestar/features/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html"&gt;http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" ref="G6:G31" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F6,"&gt;https://d0.awsstatic.com/","&gt;"),"&gt;https://aws.amazon.com/","&gt;"),"&gt;http://docs.aws.amazon.com/","&gt;"),"&gt;https://docs.aws.amazon.com/","&gt;"),"&gt;https://forums.aws.amazon.com/","&gt;"),".html&lt;/a&gt;&lt;/br&gt;","&lt;/a&gt;&lt;/br&gt;")</f>
-        <v>&lt;a href="https://aws.amazon.com/codestar/features/"&gt;codestar/features/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href="http://docs.aws.amazon.com/IAM/latest/UserGuide/reference_policies_evaluation-logic.html"&gt;IAM/latest/UserGuide/reference_policies_evaluation-logic&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>516</v>
-      </c>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/"&gt;https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://aws.amazon.com/blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/"&gt;blogs/mt/use-parameter-store-to-securely-access-secrets-and-config-data-in-aws-codedeploy/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>517</v>
-      </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/"&gt;https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/"&gt;about-aws/whats-new/2017/07/amazon-cloudwatch-introduces-high-resolution-custom-metrics-and-alarms/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>518</v>
-      </c>
       <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="2">
         <f t="shared" si="1"/>
-        <v>https://aws.amazon.com/dynamodb/dax/</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://aws.amazon.com/dynamodb/dax/"&gt;https://aws.amazon.com/dynamodb/dax/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://aws.amazon.com/dynamodb/dax/"&gt;dynamodb/dax/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>519</v>
-      </c>
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/"&gt;https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://aws.amazon.com/blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/"&gt;blogs/aws/new-amazon-ec2-feature-bring-your-own-keypair/&lt;/a&gt;&lt;/br&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.3">
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>520</v>
-      </c>
       <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/"&gt;https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
       <c r="G11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;a href="https://aws.amazon.com/about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/"&gt;about-aws/whats-new/2018/07/amazon-s3-announces-increased-request-rate-performance/&lt;/a&gt;&lt;/br&gt;</v>
+        <v>&lt;a href=""&gt;0&lt;/a&gt;&lt;/br&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2847,10 +2817,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{169341F6-0A9A-4B2F-94C0-C2B10DDADB42}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{1257D014-2419-4C69-9CDD-85998EFE4A89}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{390DE259-A64E-4BE6-BD8F-DF3E31D4197B}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{F29C950D-853C-4B21-9445-85CA646FB594}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{190068F6-F0DA-476A-9F78-52392CE1AECB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4678,7 +4651,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>112</v>
       </c>
@@ -4973,7 +4946,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>169</v>
       </c>
